--- a/Doo-Doc/Nueva Version Victus/Modelos de Dominio Enriquecidos/Modelo De Dominio Enriquecido Reservas.xlsx
+++ b/Doo-Doc/Nueva Version Victus/Modelos de Dominio Enriquecidos/Modelo De Dominio Enriquecido Reservas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\DOO 2024 BD\DOO\victus-doc\Doo-Doc\Nueva Version Victus\Modelos de Dominio Enriquecidos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josez\Documents\Universidad IngeSistemas\Diseño Orientado a Objetos(DOO)\VictusProyect\victus-doc\Doo-Doc\Nueva Version Victus\Modelos de Dominio Enriquecidos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAD0AFB-1789-4DA8-BF35-1D6928DE1D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EB3715-7C3B-4141-AA33-97F1A405A7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15285" firstSheet="2" activeTab="5" xr2:uid="{9E75F319-B909-453D-9AFC-FA9C5B40B20E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="5" xr2:uid="{9E75F319-B909-453D-9AFC-FA9C5B40B20E}"/>
   </bookViews>
   <sheets>
     <sheet name="Valores" sheetId="1" r:id="rId1"/>
@@ -1328,7 +1328,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="209">
   <si>
     <t>Tipo Objeto Dominio</t>
   </si>
@@ -1456,18 +1456,6 @@
     <t>¿Identifica al registro?</t>
   </si>
   <si>
-    <t>Reponsabilidad 1</t>
-  </si>
-  <si>
-    <t>Reponsabilidad 2</t>
-  </si>
-  <si>
-    <t>Reponsabilidad 3</t>
-  </si>
-  <si>
-    <t>Reponsabilidad 4</t>
-  </si>
-  <si>
     <t>identificador</t>
   </si>
   <si>
@@ -1733,6 +1721,240 @@
   </si>
   <si>
     <t>No puede haber mas de un residente con el mismo correo.</t>
+  </si>
+  <si>
+    <t>Registrar</t>
+  </si>
+  <si>
+    <t>Acción dónde un administrador podrá crear un residente.</t>
+  </si>
+  <si>
+    <t>Resid-Pol0001</t>
+  </si>
+  <si>
+    <t>Asegurar que los datos requeridos para registrar la información del nuevo residente sean válidos a nivel de tipo de dato,formato, rango, longitud y obligatoriedad.</t>
+  </si>
+  <si>
+    <t>En caso de que la politica no se cumpla, se deberá generar un mensaje de error indicando que los datos no fueron validos a nivel de tipo de dato, longitud, obligatoriedad, formato y rango y de ser posible, se emite una recomendación para solucionar el problema.</t>
+  </si>
+  <si>
+    <t>Detener de forma inmediata le ejecución del proceso actual.</t>
+  </si>
+  <si>
+    <t>Resid-Pol0002</t>
+  </si>
+  <si>
+    <t>Se debe asegurar que no exista otro Residente registrado con el mismo tipo y numero de documento de identidad.</t>
+  </si>
+  <si>
+    <t>En caso de que la politica no se cumpla, se deberá generar un mensaje de error indicando que se intenta registrar un residente que tiene el mismo tipo y número de documento de un residente ya existente.</t>
+  </si>
+  <si>
+    <t>Resid-Pol0003</t>
+  </si>
+  <si>
+    <t>Se debe asegurar que no exista otro Residente registrado con el mismo número de contacto.</t>
+  </si>
+  <si>
+    <t>En caso de que la politica no se cumpla, se deberá generar un mensaje de error indicando que se intenta registrar un residente con el mismo número de contacto que otro residente ya existente.</t>
+  </si>
+  <si>
+    <t>Detengo el proceso hasta que se ingresen datos valido para la creación del residente.</t>
+  </si>
+  <si>
+    <t>Resid-Pol0004</t>
+  </si>
+  <si>
+    <t>Asegurar que el identificador del residente que se desea registrar  no ha haya sido asignado previamente a otro residente.</t>
+  </si>
+  <si>
+    <t>En caso de que la politica no se cumpla, se deberá generar un mensaje de error indicando que se intenta registrar un residente que esta previamente registrado con el mismo identificador.</t>
+  </si>
+  <si>
+    <t>Continuo el proceso generando nuevos identificadores hasta asegurar que no esten asignados a otro Inmueble.</t>
+  </si>
+  <si>
+    <t>Resid-Pol0005</t>
+  </si>
+  <si>
+    <t>Se debe asegurar que no exista otro residente registrado con el mismo correo electronico.</t>
+  </si>
+  <si>
+    <t>En caso de que la politica no se cumpla, se deberá generar un mensaje de error indicando que se intenta registrar un residente con el mismo correo electronico que otro residente ya existente.</t>
+  </si>
+  <si>
+    <t>Buscar</t>
+  </si>
+  <si>
+    <t>Acción de buscar la información asociada a un residente.</t>
+  </si>
+  <si>
+    <t>Lista&lt;Residente&gt;</t>
+  </si>
+  <si>
+    <t>Resid-Pol0006</t>
+  </si>
+  <si>
+    <t>Se debe Asegurar que si se envian parametros de consulta sean válidos a nivel de tipo de dato,formato, rango, longitud y obligatoriedad.</t>
+  </si>
+  <si>
+    <t>Modificar</t>
+  </si>
+  <si>
+    <t>Acción de modificar los atributos de un residente.</t>
+  </si>
+  <si>
+    <t>Resid-Pol0007</t>
+  </si>
+  <si>
+    <t>Se debe asegura que exista.</t>
+  </si>
+  <si>
+    <t>En caso de que la politica no se cumpla, se deberá generar un mensaje de error indicando que los datos que se ingresaron no pertenecen a ningun residente.</t>
+  </si>
+  <si>
+    <t>Detengo el preceso hasta que se inserten datos validos ya exitententes.</t>
+  </si>
+  <si>
+    <t>Eliminar</t>
+  </si>
+  <si>
+    <t>Acción de eliminar un residente de un conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Requerido</t>
+  </si>
+  <si>
+    <t>Filtro/No Listar</t>
+  </si>
+  <si>
+    <t>Requerido/No modificable</t>
+  </si>
+  <si>
+    <t>Filtro/Listar</t>
+  </si>
+  <si>
+    <t>Requerido/Modificable</t>
+  </si>
+  <si>
+    <t>No requerido</t>
+  </si>
+  <si>
+    <t>No filtrar</t>
+  </si>
+  <si>
+    <t>Filtro {Inmueble.identificador}/Listar {Inmueble.nombre}</t>
+  </si>
+  <si>
+    <t>Lista&lt;Reserva&gt;</t>
+  </si>
+  <si>
+    <t>Listado de todos los residentes que cumplen con los filtros de consulta: 1. Devuelve vacio cuando no se cumplan parametros de consulta. 2.Devuelve el listado de los residentes que cumplan con el filtro de consulta.</t>
+  </si>
+  <si>
+    <t>Reser-Pol0001</t>
+  </si>
+  <si>
+    <t>Reser-Pol0002</t>
+  </si>
+  <si>
+    <t>Reser-Pol0003</t>
+  </si>
+  <si>
+    <t>Reser-Pol0004</t>
+  </si>
+  <si>
+    <t>Reser-Pol0005</t>
+  </si>
+  <si>
+    <t>Reser-Pol0006</t>
+  </si>
+  <si>
+    <t>Reser-Pol0007</t>
+  </si>
+  <si>
+    <t>No es permitido tener mas de una reserva con el mismo numero ID.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No esta permitido que el residente se pase de las horas diarias permitidas por reserva. </t>
+  </si>
+  <si>
+    <t>No es permitido reservar en dias de mantenimiento de una zona.</t>
+  </si>
+  <si>
+    <t>En caso de que la politica no se cumpla, se deberá generar un mensaje de error indicando que se intenta registrar una reserva con un número de id ya existente.</t>
+  </si>
+  <si>
+    <t>En caso de que la politica no se cumpla, se deberá generar un mensaje de error indicando que se ya se cumplio con la cantidad de horas diarias por reserva.</t>
+  </si>
+  <si>
+    <t>En caso de que la politica no se cumpla, se deberá generar un mensaje de error indicando que se intenta registrar una reserva en un lugar con mantenimiento agendado.</t>
+  </si>
+  <si>
+    <t>No es posible tener dos reserva con un mismo turno para el mismo residente.</t>
+  </si>
+  <si>
+    <t>En caso de que la politica no se cumpla, se deberá generar un mensaje de error indicando que se intenta registrar una reserva ya existente para el residente.</t>
+  </si>
+  <si>
+    <t>En caso de que la politica no se cumpla, se deberá generar un mensaje de error indicando que los datos que se ingresaron no pertenecen a ninguna reserva.</t>
+  </si>
+  <si>
+    <t>Continuo el proceso generando nuevos identificadores hasta asegurar que no esten asignados a otra reserva.</t>
+  </si>
+  <si>
+    <t>Detengo el proceso hasta que se ingresen datos valido para la creación de la reserva.</t>
+  </si>
+  <si>
+    <t>Filtro {Residente.identificador}/Listar {Residente.nombre}</t>
+  </si>
+  <si>
+    <t>Filtro {Agenda.identificador}/Listar {Agenda.nombre}</t>
+  </si>
+  <si>
+    <t>Acción dónde un administrador podrá crear una reserva.</t>
+  </si>
+  <si>
+    <t>Acción de buscar la información asociada a una reserva.</t>
+  </si>
+  <si>
+    <t>Acción de modificar los atributos de una reserva.</t>
+  </si>
+  <si>
+    <t>Acción de eliminar una reserva de un residente.</t>
+  </si>
+  <si>
+    <t>Acción dónde un administrador podrá crear un turno.</t>
+  </si>
+  <si>
+    <t>Acción de buscar la información asociada a un turno.</t>
+  </si>
+  <si>
+    <t>Acción de modificar los atributos de un turno.</t>
+  </si>
+  <si>
+    <t>Acción de eliminar un turno de una reserva.</t>
+  </si>
+  <si>
+    <t>Lista&lt;Turno&gt;</t>
+  </si>
+  <si>
+    <t>Listado de todos las reservas que cumplen con los filtros de consulta: 1. Devuelve vacio cuando no se cumplan parametros de consulta. 2.Devuelve el listado de las reservas que cumplan con el filtro de consulta.</t>
+  </si>
+  <si>
+    <t>Listado de todos los turno que cumplen con los filtros de consulta: 1. Devuelve vacio cuando no se cumplan parametros de consulta. 2.Devuelve el listado de los turno que cumplan con el filtro de consulta.</t>
+  </si>
+  <si>
+    <t>En caso de que la politica no se cumpla, se deberá generar un mensaje de error indicando que los datos que se ingresaron no pertenecen a ningun turno.</t>
+  </si>
+  <si>
+    <t>No es permitido tener mas de un turno con el mismo identificador.</t>
+  </si>
+  <si>
+    <t>Asegurar que los datos requeridos para registrar la información del nuevo turno sean válidos a nivel de tipo de dato,formato, rango, longitud y obligatoriedad.</t>
+  </si>
+  <si>
+    <t>En caso de que la politica no se cumpla, se deberá generar un mensaje de error indicando que se intenta registrar un turno con un número de identificador ya existente.</t>
   </si>
 </sst>
 </file>
@@ -1780,15 +2002,6 @@
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -1811,6 +2024,12 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1872,7 +2091,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -2206,12 +2425,236 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2259,18 +2702,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2283,9 +2714,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2319,71 +2747,44 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2406,40 +2807,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2448,71 +2843,356 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="43" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="38" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2904,19 +3584,19 @@
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="48"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2924,7 +3604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -2932,7 +3612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -2940,52 +3620,52 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
@@ -3006,7 +3686,7 @@
       <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3017,30 +3697,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6DC33F5-6024-4ECE-8864-A6190D431B22}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="8"/>
+    <col min="1" max="1" width="21.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="64"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C1" s="49"/>
+      <c r="D1" s="50"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>17</v>
       </c>
@@ -3054,44 +3732,44 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="65" t="str">
+      <c r="D3" s="51" t="str">
         <f>$B$1</f>
         <v>Agendas</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="66"/>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D4" s="52"/>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="67"/>
+      <c r="D5" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3100,8 +3778,8 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A5" location="Residente!A1" display="Residente" xr:uid="{12F9B779-71DE-403C-90DE-F088DB8FD061}"/>
-    <hyperlink ref="A3" location="ZonaComun!B2" display="ZonaComun" xr:uid="{DBEA17F2-E05F-476B-96F7-3188CA2C6FFB}"/>
-    <hyperlink ref="A4" location="Agenda!B2" display="Agenda" xr:uid="{326DF515-977D-490D-8666-8079CAA274F4}"/>
+    <hyperlink ref="A3" location="Reserva!A1" display="Reserva" xr:uid="{DBEA17F2-E05F-476B-96F7-3188CA2C6FFB}"/>
+    <hyperlink ref="A4" location="Turno!A1" display="Turno" xr:uid="{326DF515-977D-490D-8666-8079CAA274F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3109,109 +3787,109 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BC2B36-176F-457B-9E5A-2C1354FBA2A7}">
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="J13" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22:O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.28515625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="79.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.33203125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="79.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="94.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="132.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="46.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="50.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="66.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="52.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.42578125" style="8"/>
+    <col min="17" max="17" width="94.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="132.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="46.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="50.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="66.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="52.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="92" t="str">
+      <c r="B2" s="58" t="str">
         <f>'Listado Objetos de Dominio'!A3</f>
         <v>Reserva</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-    </row>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="93" t="str">
+      <c r="B3" s="59" t="str">
         <f>'Listado Objetos de Dominio'!B3</f>
         <v>Corresponde a cada una de las reservas que pude hacer el residente, es decir, el residente puede reservar una zona común, ejemplo: El residente 001 reserva la piscina con su respectivo turno.</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>26</v>
       </c>
@@ -3263,391 +3941,668 @@
       <c r="Q4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="R4" s="19" t="str">
-        <f>A17</f>
-        <v>Reponsabilidad 1</v>
-      </c>
-      <c r="S4" s="20" t="str">
-        <f>A18</f>
-        <v>Reponsabilidad 2</v>
-      </c>
-      <c r="T4" s="21" t="str">
-        <f>A19</f>
-        <v>Reponsabilidad 3</v>
-      </c>
-      <c r="U4" s="22" t="str">
-        <f>A20</f>
-        <v>Reponsabilidad 4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="27" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="23" t="s">
+      <c r="R4" s="147" t="s">
+        <v>131</v>
+      </c>
+      <c r="S4" s="148" t="str">
+        <f>A22</f>
+        <v>Buscar</v>
+      </c>
+      <c r="T4" s="149" t="str">
+        <f>A23</f>
+        <v>Modificar</v>
+      </c>
+      <c r="U4" s="150" t="str">
+        <f>A25</f>
+        <v>Eliminar</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="19">
         <v>32</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="19">
         <v>32</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" s="23" t="s">
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="19"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q5" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="R5" s="151" t="s">
+        <v>164</v>
+      </c>
+      <c r="S5" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="T5" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="U5" s="25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="19"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q6" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="R6" s="151" t="s">
+        <v>164</v>
+      </c>
+      <c r="S6" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="T6" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="U6" s="25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="R7" s="151" t="s">
+        <v>164</v>
+      </c>
+      <c r="S7" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="T7" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="U7" s="25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q8" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="R8" s="151" t="s">
+        <v>164</v>
+      </c>
+      <c r="S8" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="T8" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="U8" s="25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="55"/>
+      <c r="C10" s="56"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="N5" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="O5" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="P5" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q5" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="R5" s="27"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="30"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="N6" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="O6" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="P6" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q6" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="R6" s="27"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="30"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="M7" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="O7" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="P7" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q7" s="24" t="s">
+      <c r="B11" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="R7" s="27"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="30"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="23" t="s">
+      <c r="B12" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="M8" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="N8" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="O8" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="P8" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q8" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="R8" s="27"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="30"/>
-    </row>
-    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="88" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="89"/>
-      <c r="C10" s="90"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+    </row>
+    <row r="13" spans="1:21" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="61"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="73"/>
+      <c r="C15" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" s="77"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="L15" s="77"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="78"/>
+      <c r="P15" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="S15" s="79"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="80"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="94" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="96" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="95"/>
-      <c r="B13" s="97"/>
-      <c r="C13" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="84" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="71"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="S15" s="87"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="85"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="I16" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="J16" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K16" s="37" t="s">
+      <c r="K16" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="L16" s="86" t="s">
+      <c r="L16" s="85" t="s">
         <v>2</v>
       </c>
       <c r="M16" s="86"/>
       <c r="N16" s="86"/>
-      <c r="O16" s="86"/>
-      <c r="P16" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q16" s="37" t="s">
+      <c r="O16" s="87"/>
+      <c r="P16" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q16" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="R16" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="S16" s="38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="68" t="s">
+      <c r="R16" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="S16" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="152" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="153"/>
+      <c r="C17" s="88" t="s">
+        <v>194</v>
+      </c>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="91" t="str">
+        <f>_xlfn.CONCAT("datos",B2)</f>
+        <v>datosReserva</v>
+      </c>
+      <c r="I17" s="92" t="str">
+        <f>B2</f>
+        <v>Reserva</v>
+      </c>
+      <c r="J17" s="91" t="str">
+        <f>_xlfn.CONCAT("Corresponde al objeto que internamente contiene los datos necesarios para crear una nueva ",$B$2,)</f>
+        <v>Corresponde al objeto que internamente contiene los datos necesarios para crear una nueva Reserva</v>
+      </c>
+      <c r="K17" s="94"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="97"/>
+      <c r="P17" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q17" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="R17" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="S17" s="98" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="154"/>
+      <c r="B18" s="155"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="176"/>
+      <c r="E18" s="176"/>
+      <c r="F18" s="176"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="106"/>
+      <c r="M18" s="107"/>
+      <c r="N18" s="107"/>
+      <c r="O18" s="108"/>
+      <c r="P18" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q18" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="R18" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="S18" s="98" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="154"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="176"/>
+      <c r="E19" s="176"/>
+      <c r="F19" s="176"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="105"/>
+      <c r="L19" s="106"/>
+      <c r="M19" s="107"/>
+      <c r="N19" s="107"/>
+      <c r="O19" s="108"/>
+      <c r="P19" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q19" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="R19" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="S19" s="98" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="154"/>
+      <c r="B20" s="155"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="176"/>
+      <c r="E20" s="176"/>
+      <c r="F20" s="176"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="105"/>
+      <c r="L20" s="106"/>
+      <c r="M20" s="107"/>
+      <c r="N20" s="107"/>
+      <c r="O20" s="108"/>
+      <c r="P20" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q20" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="R20" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="S20" s="98" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="156"/>
+      <c r="B21" s="157"/>
+      <c r="C21" s="177"/>
+      <c r="D21" s="178"/>
+      <c r="E21" s="178"/>
+      <c r="F21" s="178"/>
+      <c r="G21" s="179"/>
+      <c r="H21" s="158"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="158"/>
+      <c r="K21" s="105"/>
+      <c r="L21" s="115"/>
+      <c r="M21" s="116"/>
+      <c r="N21" s="116"/>
+      <c r="O21" s="117"/>
+      <c r="P21" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q21" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="R21" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="S21" s="98" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="118" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22" s="119"/>
+      <c r="C22" s="120" t="s">
+        <v>195</v>
+      </c>
+      <c r="D22" s="121"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="34" t="str">
+        <f>_xlfn.CONCAT("datos",B2)</f>
+        <v>datosReserva</v>
+      </c>
+      <c r="I22" s="123" t="str">
+        <f>B2</f>
+        <v>Reserva</v>
+      </c>
+      <c r="J22" s="34" t="str">
+        <f>_xlfn.CONCAT("Corresponde a un objeto que contiene los filtros de consulta de una  ",$B$2," en un conjunto residencial.")</f>
+        <v>Corresponde a un objeto que contiene los filtros de consulta de una  Reserva en un conjunto residencial.</v>
+      </c>
+      <c r="K22" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="L22" s="124" t="s">
+        <v>203</v>
+      </c>
+      <c r="M22" s="125"/>
+      <c r="N22" s="125"/>
+      <c r="O22" s="126"/>
+      <c r="P22" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q22" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="R22" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="S22" s="127" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="168" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23" s="169"/>
+      <c r="C23" s="160" t="s">
+        <v>196</v>
+      </c>
+      <c r="D23" s="161"/>
+      <c r="E23" s="161"/>
+      <c r="F23" s="161"/>
+      <c r="G23" s="162"/>
+      <c r="H23" s="170" t="str">
+        <f>_xlfn.CONCAT("datos",B2)</f>
+        <v>datosReserva</v>
+      </c>
+      <c r="I23" s="172" t="str">
+        <f>B2</f>
+        <v>Reserva</v>
+      </c>
+      <c r="J23" s="170" t="str">
+        <f>_xlfn.CONCAT("Corresponde a los datos que se van a modificar de la ",$B$2)</f>
+        <v>Corresponde a los datos que se van a modificar de la Reserva</v>
+      </c>
+      <c r="K23" s="166"/>
+      <c r="L23" s="160"/>
+      <c r="M23" s="161"/>
+      <c r="N23" s="161"/>
+      <c r="O23" s="162"/>
+      <c r="P23" s="136" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q23" s="137" t="s">
+        <v>159</v>
+      </c>
+      <c r="R23" s="137" t="s">
+        <v>189</v>
+      </c>
+      <c r="S23" s="138" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="64"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="163"/>
+      <c r="D24" s="164"/>
+      <c r="E24" s="164"/>
+      <c r="F24" s="164"/>
+      <c r="G24" s="165"/>
+      <c r="H24" s="171"/>
+      <c r="I24" s="173"/>
+      <c r="J24" s="171"/>
+      <c r="K24" s="167"/>
+      <c r="L24" s="163"/>
+      <c r="M24" s="164"/>
+      <c r="N24" s="164"/>
+      <c r="O24" s="165"/>
+      <c r="P24" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q24" s="137" t="s">
+        <v>183</v>
+      </c>
+      <c r="R24" s="137" t="s">
+        <v>186</v>
+      </c>
+      <c r="S24" s="159" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="139" t="s">
+        <v>162</v>
+      </c>
+      <c r="B25" s="140"/>
+      <c r="C25" s="141" t="s">
+        <v>197</v>
+      </c>
+      <c r="D25" s="142"/>
+      <c r="E25" s="142"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="69"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="39"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="76" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="77"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="79"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="45"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="81"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="83"/>
-      <c r="N19" s="83"/>
-      <c r="O19" s="83"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="50"/>
-      <c r="S19" s="51"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="72" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="73"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="75"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="55"/>
-      <c r="S20" s="56"/>
+      <c r="I25" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="39" t="str">
+        <f>_xlfn.CONCAT("Corresponde al identificador de la ",$B$2,"  que se quiere dar de baja.")</f>
+        <v>Corresponde al identificador de la Reserva  que se quiere dar de baja.</v>
+      </c>
+      <c r="K25" s="40"/>
+      <c r="L25" s="144"/>
+      <c r="M25" s="145"/>
+      <c r="N25" s="145"/>
+      <c r="O25" s="146"/>
+      <c r="P25" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q25" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="R25" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="S25" s="41" t="s">
+        <v>161</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="32">
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="H17:H21"/>
+    <mergeCell ref="J17:J21"/>
+    <mergeCell ref="L23:O24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="C23:G24"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="C17:G21"/>
+    <mergeCell ref="L17:O20"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="A17:B21"/>
+    <mergeCell ref="I17:I20"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="C15:G16"/>
+    <mergeCell ref="H15:J15"/>
     <mergeCell ref="P15:Q15"/>
     <mergeCell ref="R15:S15"/>
     <mergeCell ref="L16:O16"/>
@@ -3657,38 +4612,26 @@
     <mergeCell ref="B3:Q3"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="C15:G16"/>
-    <mergeCell ref="H15:J15"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{5CF40659-DFE6-490B-8F27-C76F1B381885}"/>
-    <hyperlink ref="I20" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{85CACFD0-E320-4D18-AC58-54D77FBE5DEA}"/>
-    <hyperlink ref="S4" location="'Objeto Dominio 2'!A17" display="'Objeto Dominio 2'!A17" xr:uid="{C3F0C27D-BC9E-448D-9DC8-DC829F7C1493}"/>
-    <hyperlink ref="T4" location="'Objeto Dominio 2'!A18" display="'Objeto Dominio 2'!A18" xr:uid="{D110B68A-00A9-48B9-A57E-B6C7C00FDE89}"/>
-    <hyperlink ref="U4" location="'Objeto Dominio 2'!A19" display="'Objeto Dominio 2'!A19" xr:uid="{3048AD03-22B9-4D07-96D9-012E68BDACCD}"/>
-    <hyperlink ref="A18:B18" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{B4EF5D7B-19B4-4FED-963C-03D71E7A6DE2}"/>
-    <hyperlink ref="A17:B17" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{D152F4FA-BAE8-47AE-9602-FCB10D70E615}"/>
-    <hyperlink ref="A20:B20" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{FAB3C069-1AF5-4561-B78A-8E2C3B3016DC}"/>
-    <hyperlink ref="R4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{C5864519-CEB2-4551-91C7-14CCD6735F74}"/>
     <hyperlink ref="A1:Q1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{10212072-64F9-4E47-AEF7-64DC2E58CFB9}"/>
-    <hyperlink ref="A19:B19" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{389BBED9-2A4A-4CED-BCF0-BB55887E5D4A}"/>
     <hyperlink ref="A5" location="Residente!A12" display="identificador" xr:uid="{E94BA7AD-D3E6-4259-B695-0AEE0A06D04D}"/>
     <hyperlink ref="C12" location="Reserva!A7" display="turno" xr:uid="{958AA7A2-C258-49FC-93BB-5FEA68A1CF7C}"/>
     <hyperlink ref="C13" location="Reserva!A8" display="residente" xr:uid="{F39D176D-7AF9-4715-9CF6-B8246E328FE0}"/>
+    <hyperlink ref="A22:B22" location="Reserva!S4" display="Buscar" xr:uid="{A9DBC259-39ED-41AB-9B70-2E07A2BE4061}"/>
+    <hyperlink ref="A25:B25" location="Reserva!U4" display="Eliminar" xr:uid="{F368BE56-5EE1-450D-8F1F-385A5E2DF8A7}"/>
+    <hyperlink ref="I17:I20" location="Residente!B2" display="Residente!B2" xr:uid="{1838433A-2788-4AF7-BAA4-9362FEA619B5}"/>
+    <hyperlink ref="A17:B21" location="Reserva!R4" display="Registrar" xr:uid="{85C6673F-2A84-4495-9258-FC32A0DB68D1}"/>
+    <hyperlink ref="T4" location="Reserva!A23" display="Reserva!A23" xr:uid="{CD4930EE-9506-4AC9-AA65-507BB7A9C4A3}"/>
+    <hyperlink ref="U4" location="Reserva!A24" display="Reserva!A24" xr:uid="{4B18133F-F134-4387-B4E0-E6279AEE7CFC}"/>
+    <hyperlink ref="R4" location="Reserva!A17" display="Registrar" xr:uid="{269F49CE-C6E1-4A75-8661-843E902669E5}"/>
+    <hyperlink ref="S4" location="Reserva!A22" display="Reserva!A22" xr:uid="{E9446ECC-B289-4E2F-A458-169BE1D5B45F}"/>
+    <hyperlink ref="I17:I21" location="Reserva!B2" display="Reserva!B2" xr:uid="{9C889952-8687-4AF1-A09D-D96FD023CFC5}"/>
+    <hyperlink ref="I23" location="Reserva!B2" display="Reserva!B2" xr:uid="{D1F9CCF2-BB6E-4247-8974-D7BEEC0C853C}"/>
+    <hyperlink ref="I22" location="Reserva!B2" display="Reserva!B2" xr:uid="{F1663C2D-4288-4CD4-96B0-5723627240B5}"/>
+    <hyperlink ref="I25" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{E26E7AAB-F5E9-4052-9964-C76D18933213}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3697,109 +4640,109 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037CC029-DC44-4605-90F4-CA51C57B9385}">
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="R21" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.28515625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="79.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.33203125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="79.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="94.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="132.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="46.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="50.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="66.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="52.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.42578125" style="8"/>
+    <col min="17" max="17" width="94.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="132.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="46.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="50.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="66.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="52.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="92" t="str">
+      <c r="B2" s="58" t="str">
         <f>'Listado Objetos de Dominio'!A5</f>
         <v>Residente</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-    </row>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="93" t="str">
+      <c r="B3" s="59" t="str">
         <f>'Listado Objetos de Dominio'!B5</f>
         <v>Corresponde a la persona que puede realizar una reserva para una zona común.</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>26</v>
       </c>
@@ -3851,803 +4794,1082 @@
       <c r="Q4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="R4" s="19" t="str">
-        <f>A25</f>
-        <v>Reponsabilidad 1</v>
-      </c>
-      <c r="S4" s="20" t="str">
-        <f>A26</f>
-        <v>Reponsabilidad 2</v>
-      </c>
-      <c r="T4" s="21" t="str">
-        <f>A27</f>
-        <v>Reponsabilidad 3</v>
-      </c>
-      <c r="U4" s="22" t="str">
-        <f>A28</f>
-        <v>Reponsabilidad 4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="27" x14ac:dyDescent="0.25">
-      <c r="A5" s="58" t="s">
+      <c r="R4" s="147" t="s">
+        <v>131</v>
+      </c>
+      <c r="S4" s="148" t="str">
+        <f>A30</f>
+        <v>Buscar</v>
+      </c>
+      <c r="T4" s="149" t="str">
+        <f>A31</f>
+        <v>Modificar</v>
+      </c>
+      <c r="U4" s="150" t="str">
+        <f>A32</f>
+        <v>Eliminar</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="19">
+        <v>32</v>
+      </c>
+      <c r="D5" s="19">
+        <v>32</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="19"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q5" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="R5" s="151" t="s">
+        <v>164</v>
+      </c>
+      <c r="S5" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="T5" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="U5" s="25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="19">
+        <v>1</v>
+      </c>
+      <c r="D6" s="19">
+        <v>50</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="19"/>
+      <c r="K6" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q6" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="R6" s="151" t="s">
+        <v>164</v>
+      </c>
+      <c r="S6" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="T6" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="U6" s="25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="19">
+        <v>1</v>
+      </c>
+      <c r="D7" s="19">
+        <v>50</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="19"/>
+      <c r="K7" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="R7" s="151" t="s">
+        <v>164</v>
+      </c>
+      <c r="S7" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="T7" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="U7" s="25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="19">
+        <v>1</v>
+      </c>
+      <c r="D8" s="19">
+        <v>50</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="19"/>
+      <c r="K8" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q8" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="R8" s="151" t="s">
+        <v>164</v>
+      </c>
+      <c r="S8" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="T8" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="U8" s="25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="P9" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q9" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="R9" s="151" t="s">
+        <v>164</v>
+      </c>
+      <c r="S9" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="T9" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="U9" s="25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" s="19"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="P10" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q10" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="R10" s="151" t="s">
+        <v>164</v>
+      </c>
+      <c r="S10" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="T10" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="U10" s="25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" s="19"/>
+      <c r="K11" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="P11" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q11" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="R11" s="151" t="s">
+        <v>164</v>
+      </c>
+      <c r="S11" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="T11" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="U11" s="25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="23">
-        <v>32</v>
-      </c>
-      <c r="D5" s="23">
-        <v>32</v>
-      </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="26" t="s">
+      <c r="C12" s="19">
+        <v>6</v>
+      </c>
+      <c r="D12" s="19">
+        <v>50</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" s="19"/>
+      <c r="K12" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="P12" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q12" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="R12" s="151" t="s">
+        <v>164</v>
+      </c>
+      <c r="S12" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="T12" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="U12" s="25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="69" x14ac:dyDescent="0.3">
+      <c r="A13" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="19">
+        <v>8</v>
+      </c>
+      <c r="D13" s="19">
+        <v>30</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" s="19"/>
+      <c r="K13" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="N13" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="O13" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="P13" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q13" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="R13" s="151" t="s">
+        <v>164</v>
+      </c>
+      <c r="S13" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="T13" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="U13" s="25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14" s="19"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="O14" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="P14" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q14" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="R14" s="151" t="s">
+        <v>164</v>
+      </c>
+      <c r="S14" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="T14" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="U14" s="25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:21" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="E16" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="I16" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="M5" s="23" t="s">
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+    </row>
+    <row r="17" spans="1:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="N5" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="O5" s="23" t="s">
+      <c r="B17" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="P5" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q5" s="24" t="s">
+      <c r="F17" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17" s="28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="R5" s="27"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="30"/>
-    </row>
-    <row r="6" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="23">
-        <v>1</v>
-      </c>
-      <c r="D6" s="23">
-        <v>50</v>
-      </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="24" t="s">
+      <c r="E18" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="G18" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" s="45"/>
+      <c r="I18" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="J18" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="K18" s="69" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="67"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="69"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="69"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="67"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="69"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="69"/>
+    </row>
+    <row r="21" spans="1:19" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="67"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="69"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="69"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="69"/>
+    </row>
+    <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="L6" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="N6" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="O6" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="P6" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q6" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="R6" s="27"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="30"/>
-    </row>
-    <row r="7" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="23">
-        <v>1</v>
-      </c>
-      <c r="D7" s="23">
-        <v>50</v>
-      </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="L7" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="M7" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="O7" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="P7" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q7" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="R7" s="27"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="30"/>
-    </row>
-    <row r="8" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="23">
-        <v>1</v>
-      </c>
-      <c r="D8" s="23">
-        <v>50</v>
-      </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="J8" s="23"/>
-      <c r="K8" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="L8" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="M8" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="N8" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="O8" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="P8" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q8" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="R8" s="27"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="30"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="M9" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="N9" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="O9" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="P9" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q9" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="R9" s="27"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="30"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="M10" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="N10" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="O10" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="P10" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q10" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="R10" s="27"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="30"/>
-    </row>
-    <row r="11" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="J11" s="23"/>
-      <c r="K11" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="L11" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="M11" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="N11" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="O11" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="P11" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q11" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="R11" s="27"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="30"/>
-    </row>
-    <row r="12" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="23">
-        <v>6</v>
-      </c>
-      <c r="D12" s="23">
-        <v>50</v>
-      </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="L12" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="M12" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="N12" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="O12" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="P12" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q12" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="R12" s="27"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="30"/>
-    </row>
-    <row r="13" spans="1:21" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="23">
-        <v>8</v>
-      </c>
-      <c r="D13" s="23">
-        <v>30</v>
-      </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="J13" s="23"/>
-      <c r="K13" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="L13" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="M13" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="N13" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="O13" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="P13" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q13" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="R13" s="27"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="30"/>
-    </row>
-    <row r="14" spans="1:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="J14" s="23"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="M14" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="N14" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="O14" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="P14" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q14" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="R14" s="27"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="30"/>
-    </row>
-    <row r="15" spans="1:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="101" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
-      <c r="E16" s="101" t="s">
-        <v>128</v>
-      </c>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="I16" s="101" t="s">
+      <c r="B23" s="73"/>
+      <c r="C23" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-    </row>
-    <row r="17" spans="1:19" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+      <c r="I23" s="77"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="L23" s="77"/>
+      <c r="M23" s="77"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="78"/>
+      <c r="P23" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q23" s="78"/>
+      <c r="R23" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="S23" s="79"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="80"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="J24" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="I17" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="J17" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="K17" s="33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="99" t="s">
-        <v>129</v>
-      </c>
-      <c r="B18" s="100" t="s">
-        <v>130</v>
-      </c>
-      <c r="C18" s="98" t="s">
-        <v>107</v>
-      </c>
-      <c r="E18" s="100" t="s">
-        <v>131</v>
-      </c>
-      <c r="F18" s="100" t="s">
-        <v>132</v>
-      </c>
-      <c r="G18" s="98" t="s">
-        <v>115</v>
-      </c>
-      <c r="H18" s="60"/>
-      <c r="I18" s="99" t="s">
-        <v>133</v>
-      </c>
-      <c r="J18" s="100" t="s">
-        <v>134</v>
-      </c>
-      <c r="K18" s="98" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="99"/>
-      <c r="B19" s="100"/>
-      <c r="C19" s="98"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="100"/>
-      <c r="K19" s="98"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="99"/>
-      <c r="B20" s="100"/>
-      <c r="C20" s="98" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="98"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="100"/>
-      <c r="K20" s="98"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="99"/>
-      <c r="B21" s="100"/>
-      <c r="C21" s="98"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="98"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="98"/>
-    </row>
-    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="84" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q23" s="71"/>
-      <c r="R23" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="S23" s="87"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="85"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="I24" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="J24" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K24" s="37" t="s">
+      <c r="K24" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="L24" s="86" t="s">
+      <c r="L24" s="85" t="s">
         <v>2</v>
       </c>
       <c r="M24" s="86"/>
       <c r="N24" s="86"/>
-      <c r="O24" s="86"/>
-      <c r="P24" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q24" s="37" t="s">
+      <c r="O24" s="87"/>
+      <c r="P24" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q24" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="R24" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="S24" s="38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="68" t="s">
+      <c r="R24" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="S24" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="152" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="153"/>
+      <c r="C25" s="88" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="91" t="str">
+        <f>_xlfn.CONCAT("datos",B2)</f>
+        <v>datosResidente</v>
+      </c>
+      <c r="I25" s="92" t="str">
+        <f>B2</f>
+        <v>Residente</v>
+      </c>
+      <c r="J25" s="93" t="str">
+        <f>_xlfn.CONCAT("Corresponde al objeto que internamente contiene los datos necesarios para crear un nuevo ",B2,)</f>
+        <v>Corresponde al objeto que internamente contiene los datos necesarios para crear un nuevo Residente</v>
+      </c>
+      <c r="K25" s="94"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="96"/>
+      <c r="N25" s="96"/>
+      <c r="O25" s="97"/>
+      <c r="P25" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q25" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="R25" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="S25" s="98" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="154"/>
+      <c r="B26" s="155"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="103"/>
+      <c r="J26" s="104"/>
+      <c r="K26" s="105"/>
+      <c r="L26" s="106"/>
+      <c r="M26" s="107"/>
+      <c r="N26" s="107"/>
+      <c r="O26" s="108"/>
+      <c r="P26" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q26" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="R26" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="S26" s="98" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="154"/>
+      <c r="B27" s="155"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="104"/>
+      <c r="K27" s="105"/>
+      <c r="L27" s="106"/>
+      <c r="M27" s="107"/>
+      <c r="N27" s="107"/>
+      <c r="O27" s="108"/>
+      <c r="P27" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q27" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="R27" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="S27" s="98" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="154"/>
+      <c r="B28" s="155"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="103"/>
+      <c r="J28" s="104"/>
+      <c r="K28" s="105"/>
+      <c r="L28" s="106"/>
+      <c r="M28" s="107"/>
+      <c r="N28" s="107"/>
+      <c r="O28" s="108"/>
+      <c r="P28" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q28" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="R28" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="S28" s="98" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="156"/>
+      <c r="B29" s="157"/>
+      <c r="C29" s="109"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="112"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="114"/>
+      <c r="K29" s="105"/>
+      <c r="L29" s="115"/>
+      <c r="M29" s="116"/>
+      <c r="N29" s="116"/>
+      <c r="O29" s="117"/>
+      <c r="P29" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q29" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="R29" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="S29" s="98" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="118" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" s="119"/>
+      <c r="C30" s="120" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" s="121"/>
+      <c r="E30" s="121"/>
+      <c r="F30" s="121"/>
+      <c r="G30" s="122"/>
+      <c r="H30" s="34" t="str">
+        <f>_xlfn.CONCAT("datos",B2)</f>
+        <v>datosResidente</v>
+      </c>
+      <c r="I30" s="123" t="str">
+        <f>B2</f>
+        <v>Residente</v>
+      </c>
+      <c r="J30" s="34" t="str">
+        <f>_xlfn.CONCAT("Corresponde a un objeto que contiene los filtros de consulta de un  ",B2," de un conjunto residencial.")</f>
+        <v>Corresponde a un objeto que contiene los filtros de consulta de un  Residente de un conjunto residencial.</v>
+      </c>
+      <c r="K30" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="L30" s="124" t="s">
+        <v>173</v>
+      </c>
+      <c r="M30" s="125"/>
+      <c r="N30" s="125"/>
+      <c r="O30" s="126"/>
+      <c r="P30" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q30" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="R30" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="S30" s="127" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="128" t="s">
+        <v>156</v>
+      </c>
+      <c r="B31" s="129"/>
+      <c r="C31" s="130" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="131"/>
+      <c r="E31" s="131"/>
+      <c r="F31" s="131"/>
+      <c r="G31" s="132"/>
+      <c r="H31" s="36" t="str">
+        <f>_xlfn.CONCAT("datos",B2)</f>
+        <v>datosResidente</v>
+      </c>
+      <c r="I31" s="37" t="str">
+        <f>B2</f>
+        <v>Residente</v>
+      </c>
+      <c r="J31" s="36" t="str">
+        <f>_xlfn.CONCAT("Corresponde a los datos que se van a modificar del ",B2)</f>
+        <v>Corresponde a los datos que se van a modificar del Residente</v>
+      </c>
+      <c r="K31" s="38"/>
+      <c r="L31" s="133"/>
+      <c r="M31" s="134"/>
+      <c r="N31" s="134"/>
+      <c r="O31" s="135"/>
+      <c r="P31" s="136" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q31" s="137" t="s">
+        <v>159</v>
+      </c>
+      <c r="R31" s="137" t="s">
+        <v>160</v>
+      </c>
+      <c r="S31" s="138" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="139" t="s">
+        <v>162</v>
+      </c>
+      <c r="B32" s="140"/>
+      <c r="C32" s="141" t="s">
+        <v>163</v>
+      </c>
+      <c r="D32" s="142"/>
+      <c r="E32" s="142"/>
+      <c r="F32" s="142"/>
+      <c r="G32" s="143"/>
+      <c r="H32" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="69"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="70"/>
-      <c r="N25" s="70"/>
-      <c r="O25" s="70"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="39"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="76" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="77"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="79"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="45"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="81"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="83"/>
-      <c r="M27" s="83"/>
-      <c r="N27" s="83"/>
-      <c r="O27" s="83"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="50"/>
-      <c r="R27" s="50"/>
-      <c r="S27" s="51"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="72" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="73"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="75"/>
-      <c r="M28" s="75"/>
-      <c r="N28" s="75"/>
-      <c r="O28" s="75"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="55"/>
-      <c r="S28" s="56"/>
+      <c r="I32" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J32" s="39" t="str">
+        <f>_xlfn.CONCAT("Corresponde al identificador del ",$B$2,"  que se quiere dar de baja.")</f>
+        <v>Corresponde al identificador del Residente  que se quiere dar de baja.</v>
+      </c>
+      <c r="K32" s="40"/>
+      <c r="L32" s="144"/>
+      <c r="M32" s="145"/>
+      <c r="N32" s="145"/>
+      <c r="O32" s="146"/>
+      <c r="P32" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q32" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="R32" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="S32" s="41" t="s">
+        <v>161</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="38">
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="A25:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="C25:G28"/>
+    <mergeCell ref="H25:H28"/>
+    <mergeCell ref="I25:I28"/>
+    <mergeCell ref="J25:J28"/>
+    <mergeCell ref="L25:O28"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="C23:G24"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:O23"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="F18:F21"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="B2:Q2"/>
     <mergeCell ref="B3:Q3"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="I16:K16"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="J18:J21"/>
-    <mergeCell ref="K18:K21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="C23:G24"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:O23"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="L27:O27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{1AE4FE85-AF13-4BAA-9ECE-73FAE508027B}"/>
-    <hyperlink ref="I28" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{6215B4C5-6E7D-40C4-AE19-38D135BDCD28}"/>
-    <hyperlink ref="S4" location="'Objeto Dominio 2'!A17" display="'Objeto Dominio 2'!A17" xr:uid="{6ABF5814-86E4-4816-BF25-728F73C13D47}"/>
-    <hyperlink ref="T4" location="'Objeto Dominio 2'!A18" display="'Objeto Dominio 2'!A18" xr:uid="{47704C57-6549-4089-8C72-33BADF01667D}"/>
-    <hyperlink ref="U4" location="'Objeto Dominio 2'!A19" display="'Objeto Dominio 2'!A19" xr:uid="{43BD511D-C68D-4847-82CC-A092A570012C}"/>
-    <hyperlink ref="A26:B26" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{82AAF2F9-B6D6-45CD-8B8D-318362F62801}"/>
-    <hyperlink ref="A25:B25" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{6908C061-8F49-4034-88F1-9DB133FE817C}"/>
-    <hyperlink ref="A28:B28" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{546B493B-E278-4D55-890F-29C0F6231875}"/>
-    <hyperlink ref="R4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{AD6DB6D9-722A-41BF-B20B-2C22B1F09F11}"/>
     <hyperlink ref="A1:Q1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{3716152C-292E-417A-893F-424864CE08BA}"/>
-    <hyperlink ref="A27:B27" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{B7FCB6F7-E3EE-470F-BFDF-7D0090063611}"/>
     <hyperlink ref="C20" location="Residente!A9" display="numeroDocumento" xr:uid="{DFCD61D0-5CB4-4F8F-985B-694C43E6EA19}"/>
     <hyperlink ref="I12" r:id="rId1" xr:uid="{7F566C26-F907-47F3-8B5D-824A88113FE0}"/>
     <hyperlink ref="A5" location="Residente!A12" display="identificador" xr:uid="{446BB3D6-88B2-4F9C-95E4-D1AA3DFC372C}"/>
     <hyperlink ref="C18" location="Residente!A8" display="tipoDocumento" xr:uid="{3FA7C9E7-8C14-4BF0-9758-F62697ABA7B6}"/>
     <hyperlink ref="G18:G21" location="Residente!A11" display="numeroContacto" xr:uid="{FA4FEAA1-EEB9-4FA7-82E0-963F9C3B1C2F}"/>
     <hyperlink ref="K18:K21" location="Residente!A12" display="correoElectronico" xr:uid="{50DD6B65-8045-4E42-A131-3642AA5EA6CD}"/>
+    <hyperlink ref="I32" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{497DD431-A160-4450-A870-D95845AF6337}"/>
+    <hyperlink ref="A30:B30" location="Residente!S4" display="Buscar" xr:uid="{ABA9C985-BA56-439E-8A7A-A6B65FB1418E}"/>
+    <hyperlink ref="A32:B32" location="Residente!U4" display="Eliminar" xr:uid="{0A6FE94D-C425-4C6C-BDC7-52549C31DE3F}"/>
+    <hyperlink ref="A31:B31" location="Residente!T4" display="Modificar" xr:uid="{6116F882-5711-4F36-BE4A-43FB1CB04042}"/>
+    <hyperlink ref="I25:I28" location="Residente!B2" display="Residente!B2" xr:uid="{570CC34F-7D11-4CD7-98B4-381DCC330A61}"/>
+    <hyperlink ref="I30" location="Residente!B2" display="Residente!B2" xr:uid="{630FABF8-71A5-4CD4-A861-4C7E37773599}"/>
+    <hyperlink ref="I31" location="Residente!B2" display="Residente!B2" xr:uid="{69B9D49B-88A1-4AE6-92D6-6C29739F94CE}"/>
+    <hyperlink ref="T4" location="Residente!A31" display="Residente!A31" xr:uid="{A80BF91E-B916-4AAC-8A53-FAD7D15EF18A}"/>
+    <hyperlink ref="U4" location="Residente!A32" display="Residente!A32" xr:uid="{1EF9E111-39FA-4471-B740-CA2579CB32F5}"/>
+    <hyperlink ref="R4" location="Residente!A25" display="Registrar" xr:uid="{33F13131-C39E-4548-B53E-38537739A002}"/>
+    <hyperlink ref="S4" location="Residente!A30" display="Residente!A30" xr:uid="{F5C98B1D-D86B-41BC-B213-515A1D283A7B}"/>
+    <hyperlink ref="A25:B29" location="Residente!R4" display="Registrar" xr:uid="{425D74EB-77D6-43A9-AC59-69DE19D482EF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>
@@ -4656,109 +5878,109 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC57795F-B02D-497B-A04E-44BC1D3D4128}">
-  <dimension ref="A1:U24"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.28515625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="79.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.33203125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="79.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="94.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="132.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="46.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="50.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="66.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="52.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.42578125" style="8"/>
+    <col min="17" max="17" width="94.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="132.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="46.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="50.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="66.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="52.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.44140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="92" t="str">
+      <c r="B2" s="58" t="str">
         <f>'Listado Objetos de Dominio'!A4</f>
         <v>Turno</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-    </row>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="93" t="str">
+      <c r="B3" s="59" t="str">
         <f>'Listado Objetos de Dominio'!B4</f>
         <v>Corresponde a los turnos que un residente puede reservar en una agenda, es decir, el residente toma un turno que esta disponible de una agenda que anteriormente ya esta programada.</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
-      <c r="Q3" s="93"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>26</v>
       </c>
@@ -4810,495 +6032,664 @@
       <c r="Q4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="R4" s="19" t="str">
-        <f>A21</f>
-        <v>Reponsabilidad 1</v>
-      </c>
-      <c r="S4" s="20" t="str">
-        <f>A22</f>
-        <v>Reponsabilidad 2</v>
-      </c>
-      <c r="T4" s="21" t="str">
+      <c r="R4" s="147" t="s">
+        <v>131</v>
+      </c>
+      <c r="S4" s="148" t="str">
         <f>A23</f>
-        <v>Reponsabilidad 3</v>
-      </c>
-      <c r="U4" s="22" t="str">
+        <v>Buscar</v>
+      </c>
+      <c r="T4" s="149" t="str">
         <f>A24</f>
-        <v>Reponsabilidad 4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="27" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="23" t="s">
+        <v>Modificar</v>
+      </c>
+      <c r="U4" s="150" t="str">
+        <f>A25</f>
+        <v>Eliminar</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="19">
         <v>32</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="19">
         <v>32</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="24" t="s">
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" s="19"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q5" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="R5" s="151" t="s">
+        <v>164</v>
+      </c>
+      <c r="S5" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="T5" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="U5" s="25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="19">
+        <v>1</v>
+      </c>
+      <c r="D6" s="19">
+        <v>50</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="19"/>
+      <c r="K6" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q6" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="R6" s="151" t="s">
+        <v>164</v>
+      </c>
+      <c r="S6" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="T6" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="U6" s="25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="R7" s="151" t="s">
+        <v>164</v>
+      </c>
+      <c r="S7" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="T7" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="U7" s="25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="19"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q8" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="R8" s="151" t="s">
+        <v>164</v>
+      </c>
+      <c r="S8" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="T8" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="U8" s="25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="19"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q9" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="R9" s="151" t="s">
+        <v>164</v>
+      </c>
+      <c r="S9" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="T9" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="U9" s="25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="26" t="s">
+      <c r="B10" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q10" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="R10" s="151" t="s">
+        <v>164</v>
+      </c>
+      <c r="S10" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="T10" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="U10" s="25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="M5" s="23" t="s">
+      <c r="B12" s="55"/>
+      <c r="C12" s="56"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="N5" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="O5" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="P5" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q5" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="R5" s="27"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="30"/>
-    </row>
-    <row r="6" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="23">
-        <v>1</v>
-      </c>
-      <c r="D6" s="23">
+      <c r="B13" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="24" t="s">
+    </row>
+    <row r="14" spans="1:21" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="70"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="70"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="L6" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="N6" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="O6" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="P6" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q6" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="R6" s="27"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="30"/>
-    </row>
-    <row r="7" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="24" t="s">
+    </row>
+    <row r="17" spans="1:19" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="61"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="M7" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="N7" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="O7" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="P7" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q7" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="R7" s="27"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="30"/>
-    </row>
-    <row r="8" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="J8" s="23"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="M8" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="N8" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="O8" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="P8" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q8" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="R8" s="27"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="30"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="J9" s="23"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="M9" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="N9" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="O9" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="P9" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q9" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="R9" s="27"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="30"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="M10" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="N10" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="O10" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="P10" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q10" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="R10" s="27"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="30"/>
-    </row>
-    <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="88" t="s">
+    </row>
+    <row r="18" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="73"/>
+      <c r="C19" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="89"/>
-      <c r="C12" s="90"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="I19" s="77"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="L19" s="77"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="78"/>
+      <c r="P19" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q19" s="78"/>
+      <c r="R19" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="S19" s="79"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="80"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="94" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="96" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="102"/>
-      <c r="B15" s="103"/>
-      <c r="C15" s="35" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="102"/>
-      <c r="B16" s="103"/>
-      <c r="C16" s="35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="95"/>
-      <c r="B17" s="97"/>
-      <c r="C17" s="57" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="84" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="L19" s="71"/>
-      <c r="M19" s="71"/>
-      <c r="N19" s="71"/>
-      <c r="O19" s="71"/>
-      <c r="P19" s="71" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q19" s="71"/>
-      <c r="R19" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="S19" s="87"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="85"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="I20" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="J20" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K20" s="37" t="s">
+      <c r="K20" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="L20" s="86" t="s">
+      <c r="L20" s="85" t="s">
         <v>2</v>
       </c>
       <c r="M20" s="86"/>
       <c r="N20" s="86"/>
-      <c r="O20" s="86"/>
-      <c r="P20" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q20" s="37" t="s">
+      <c r="O20" s="87"/>
+      <c r="P20" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q20" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="R20" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="S20" s="38" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="68" t="s">
+      <c r="R20" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="S20" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="152" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="153"/>
+      <c r="C21" s="88" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="91" t="str">
+        <f>_xlfn.CONCAT("datos",B2)</f>
+        <v>datosTurno</v>
+      </c>
+      <c r="I21" s="91" t="str">
+        <f>B2</f>
+        <v>Turno</v>
+      </c>
+      <c r="J21" s="91" t="str">
+        <f>_xlfn.CONCAT("Corresponde al objeto que internamente contiene los datos necesarios para crear un nuevo ",$B$2,)</f>
+        <v>Corresponde al objeto que internamente contiene los datos necesarios para crear un nuevo Turno</v>
+      </c>
+      <c r="K21" s="94"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="96"/>
+      <c r="N21" s="96"/>
+      <c r="O21" s="97"/>
+      <c r="P21" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q21" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="R21" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="S21" s="98" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="154"/>
+      <c r="B22" s="155"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="176"/>
+      <c r="E22" s="176"/>
+      <c r="F22" s="176"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="102"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="105"/>
+      <c r="L22" s="106"/>
+      <c r="M22" s="107"/>
+      <c r="N22" s="107"/>
+      <c r="O22" s="108"/>
+      <c r="P22" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q22" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="R22" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="S22" s="98" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="118" t="s">
+        <v>151</v>
+      </c>
+      <c r="B23" s="119"/>
+      <c r="C23" s="120" t="s">
+        <v>199</v>
+      </c>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="34" t="str">
+        <f>_xlfn.CONCAT("datos",B2)</f>
+        <v>datosTurno</v>
+      </c>
+      <c r="I23" s="34" t="str">
+        <f>B2</f>
+        <v>Turno</v>
+      </c>
+      <c r="J23" s="34" t="str">
+        <f>_xlfn.CONCAT("Corresponde a un objeto que contiene los filtros de consulta de un  ",$B$2," en un conjunto residencial.")</f>
+        <v>Corresponde a un objeto que contiene los filtros de consulta de un  Turno en un conjunto residencial.</v>
+      </c>
+      <c r="K23" s="46" t="s">
+        <v>202</v>
+      </c>
+      <c r="L23" s="124" t="s">
+        <v>204</v>
+      </c>
+      <c r="M23" s="125"/>
+      <c r="N23" s="125"/>
+      <c r="O23" s="126"/>
+      <c r="P23" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q23" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="R23" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="S23" s="127" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="168" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24" s="169"/>
+      <c r="C24" s="180" t="s">
+        <v>200</v>
+      </c>
+      <c r="D24" s="181"/>
+      <c r="E24" s="181"/>
+      <c r="F24" s="181"/>
+      <c r="G24" s="182"/>
+      <c r="H24" s="174" t="str">
+        <f>_xlfn.CONCAT("datos",B2)</f>
+        <v>datosTurno</v>
+      </c>
+      <c r="I24" s="174" t="str">
+        <f>B2</f>
+        <v>Turno</v>
+      </c>
+      <c r="J24" s="174" t="str">
+        <f>_xlfn.CONCAT("Corresponde a los datos que se van a modificar del ",$B$2)</f>
+        <v>Corresponde a los datos que se van a modificar del Turno</v>
+      </c>
+      <c r="K24" s="175"/>
+      <c r="L24" s="160"/>
+      <c r="M24" s="161"/>
+      <c r="N24" s="161"/>
+      <c r="O24" s="162"/>
+      <c r="P24" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q24" s="137" t="s">
+        <v>159</v>
+      </c>
+      <c r="R24" s="137" t="s">
+        <v>205</v>
+      </c>
+      <c r="S24" s="138" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="139" t="s">
+        <v>162</v>
+      </c>
+      <c r="B25" s="140"/>
+      <c r="C25" s="141" t="s">
+        <v>201</v>
+      </c>
+      <c r="D25" s="142"/>
+      <c r="E25" s="142"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="39"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="76" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="77"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="79"/>
-      <c r="O22" s="79"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="44"/>
-      <c r="S22" s="45"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="83"/>
-      <c r="M23" s="83"/>
-      <c r="N23" s="83"/>
-      <c r="O23" s="83"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="50"/>
-      <c r="R23" s="50"/>
-      <c r="S23" s="51"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="72" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="73"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="75"/>
-      <c r="O24" s="75"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="55"/>
-      <c r="S24" s="56"/>
+      <c r="I25" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="39" t="str">
+        <f>_xlfn.CONCAT("Corresponde al identificador del ",$B$2,"  que se quiere dar de baja.")</f>
+        <v>Corresponde al identificador del Turno  que se quiere dar de baja.</v>
+      </c>
+      <c r="K25" s="40"/>
+      <c r="L25" s="144"/>
+      <c r="M25" s="145"/>
+      <c r="N25" s="145"/>
+      <c r="O25" s="146"/>
+      <c r="P25" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q25" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="R25" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="S25" s="41" t="s">
+        <v>161</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="28">
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="C21:G22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="L21:O22"/>
     <mergeCell ref="R19:S19"/>
     <mergeCell ref="L20:O20"/>
     <mergeCell ref="A1:Q1"/>
@@ -5312,37 +6703,25 @@
     <mergeCell ref="H19:J19"/>
     <mergeCell ref="K19:O19"/>
     <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="L24:O24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{94AC8755-4E69-45C0-81AE-103982376658}"/>
-    <hyperlink ref="I24" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{654A6352-4502-4141-9372-79581DFEF69A}"/>
-    <hyperlink ref="S4" location="'Objeto Dominio 2'!A17" display="'Objeto Dominio 2'!A17" xr:uid="{344C2E41-C066-452B-B77E-886FC7A89C13}"/>
-    <hyperlink ref="T4" location="'Objeto Dominio 2'!A18" display="'Objeto Dominio 2'!A18" xr:uid="{DDEF81CA-92F5-4594-8274-C5F01F783A17}"/>
-    <hyperlink ref="U4" location="'Objeto Dominio 2'!A19" display="'Objeto Dominio 2'!A19" xr:uid="{2D4FFDF8-95C8-4183-AB8D-9E8145149A28}"/>
-    <hyperlink ref="A22:B22" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{591154F0-D1B6-47C4-9E59-F1834D3BC748}"/>
-    <hyperlink ref="A21:B21" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{9ADEAD81-855E-4FBD-8A30-087F0FA6930E}"/>
-    <hyperlink ref="A24:B24" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{AD795B20-2A87-41F4-B1E4-8BFA97C050BC}"/>
-    <hyperlink ref="R4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{7A81E17B-4C06-43BE-985D-35B7A8F515F7}"/>
     <hyperlink ref="A1:Q1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{A07B997A-10B9-47BA-93CF-F21578FD4814}"/>
-    <hyperlink ref="A23:B23" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{5B2D44F1-907D-49BB-A276-160B94F1265A}"/>
     <hyperlink ref="A5" location="Residente!A12" display="identificador" xr:uid="{FE597574-E242-4CFD-84B5-8F3665A918D8}"/>
     <hyperlink ref="C14" location="Turno!A6" display="nombreNumeroTurno" xr:uid="{CF645687-9AC3-474C-86D4-1B0038933112}"/>
     <hyperlink ref="C17" location="Turno!A10" display="agenda " xr:uid="{DEC19558-A936-43DE-8EA6-CF097F49F857}"/>
     <hyperlink ref="C15" location="Turno!A7" display="horaInicio" xr:uid="{B80256C5-DB80-4B91-8790-EE8AE23F9C62}"/>
     <hyperlink ref="C16" location="Turno!A8" display="horaFin" xr:uid="{E22FFD98-CB13-45E8-AE86-B88017669FB9}"/>
     <hyperlink ref="A10" location="Agenda!A1" display="agenda" xr:uid="{339F36D6-9139-418E-B004-B91A32C78651}"/>
+    <hyperlink ref="A23:B23" location="Turno!S4" display="Buscar" xr:uid="{68F8C658-6991-4982-AA6A-1DF175A78458}"/>
+    <hyperlink ref="A25:B25" location="Turno!U4" display="Eliminar" xr:uid="{797B4F6B-A586-4BB0-8AF6-79C8EA9CBE25}"/>
+    <hyperlink ref="A21:B22" location="Turno!R4" display="Registrar" xr:uid="{4AF6602E-E0E3-4735-97E3-C1225FBF4E72}"/>
+    <hyperlink ref="I25" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{765A0323-7B90-4DEF-ADFF-9DC283307666}"/>
+    <hyperlink ref="T4" location="Turno!A27" display="Turno!A27" xr:uid="{70F650AA-B42D-4B2B-85F0-CD857D832440}"/>
+    <hyperlink ref="U4" location="Turno!A29" display="Turno!A29" xr:uid="{5FDCB866-4F36-45DA-816D-5DB30279642B}"/>
+    <hyperlink ref="R4" location="Turno!A21" display="Registrar" xr:uid="{64714A7B-E0B7-4EED-BCE3-5791209D17BE}"/>
+    <hyperlink ref="S4" location="Turno!A26" display="Turno!A26" xr:uid="{0318B592-2B3B-4420-8401-7AAE05D11F42}"/>
+    <hyperlink ref="A24:B24" location="Turno!U4" display="Modificar" xr:uid="{1F4FC9B8-A6C4-40AF-8529-21FE0E59FB29}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Doo-Doc/Nueva Version Victus/Modelos de Dominio Enriquecidos/Modelo De Dominio Enriquecido Reservas.xlsx
+++ b/Doo-Doc/Nueva Version Victus/Modelos de Dominio Enriquecidos/Modelo De Dominio Enriquecido Reservas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josez\Documents\Universidad IngeSistemas\Diseño Orientado a Objetos(DOO)\VictusProyect\victus-doc\Doo-Doc\Nueva Version Victus\Modelos de Dominio Enriquecidos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\DOO 2024 BD\DOO\victus-doc\Doo-Doc\Nueva Version Victus\Modelos de Dominio Enriquecidos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EB3715-7C3B-4141-AA33-97F1A405A7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD6DDC3-2D2A-4D57-99CE-0B7BFB9E392F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="5" xr2:uid="{9E75F319-B909-453D-9AFC-FA9C5B40B20E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="2" activeTab="3" xr2:uid="{9E75F319-B909-453D-9AFC-FA9C5B40B20E}"/>
   </bookViews>
   <sheets>
     <sheet name="Valores" sheetId="1" r:id="rId1"/>
@@ -1328,7 +1328,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="210">
   <si>
     <t>Tipo Objeto Dominio</t>
   </si>
@@ -1843,9 +1843,6 @@
     <t>No filtrar</t>
   </si>
   <si>
-    <t>Filtro {Inmueble.identificador}/Listar {Inmueble.nombre}</t>
-  </si>
-  <si>
     <t>Lista&lt;Reserva&gt;</t>
   </si>
   <si>
@@ -1906,9 +1903,6 @@
     <t>Detengo el proceso hasta que se ingresen datos valido para la creación de la reserva.</t>
   </si>
   <si>
-    <t>Filtro {Residente.identificador}/Listar {Residente.nombre}</t>
-  </si>
-  <si>
     <t>Filtro {Agenda.identificador}/Listar {Agenda.nombre}</t>
   </si>
   <si>
@@ -1955,6 +1949,15 @@
   </si>
   <si>
     <t>En caso de que la politica no se cumpla, se deberá generar un mensaje de error indicando que se intenta registrar un turno con un número de identificador ya existente.</t>
+  </si>
+  <si>
+    <t>Filtro {Inmueble.identificador}/Listar {Inmueble.tipoInmueble,Inmueble.numeroVivienda}</t>
+  </si>
+  <si>
+    <t>Filtro {Turno.identificador}/Listar {Turno.numeroTurno,Turnos.horainicio,Turno.horaFin}</t>
+  </si>
+  <si>
+    <t>Filtro {Residente.identificador}/Listar {Residente.nombre,Residente.apellido,Residente.correo}</t>
   </si>
 </sst>
 </file>
@@ -2654,7 +2657,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2786,6 +2789,84 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2807,6 +2888,225 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="43" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="38" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2837,362 +3137,62 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="43" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="43" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="37" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="38" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3584,19 +3584,19 @@
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="74"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -3620,52 +3620,52 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
@@ -3686,7 +3686,7 @@
       <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3699,26 +3699,26 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.44140625" style="8"/>
+    <col min="1" max="1" width="21.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C1" s="75"/>
+      <c r="D1" s="76"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>17</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>83</v>
       </c>
@@ -3742,12 +3742,12 @@
       <c r="C3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="51" t="str">
+      <c r="D3" s="77" t="str">
         <f>$B$1</f>
         <v>Agendas</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>21</v>
       </c>
@@ -3757,9 +3757,9 @@
       <c r="C4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="52"/>
-    </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D4" s="78"/>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>84</v>
       </c>
@@ -3769,7 +3769,7 @@
       <c r="C5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="53"/>
+      <c r="D5" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3789,107 +3789,107 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BC2B36-176F-457B-9E5A-2C1354FBA2A7}">
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView topLeftCell="J13" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22:O22"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.33203125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="79.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.28515625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="79.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="94.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="132.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="46.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="50.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="66.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="52.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.44140625" style="8"/>
+    <col min="17" max="17" width="94.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="132.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="51.140625" style="8" customWidth="1"/>
+    <col min="20" max="20" width="50.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="66.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="52.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="156"/>
+      <c r="P1" s="156"/>
+      <c r="Q1" s="156"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="58" t="str">
+      <c r="B2" s="157" t="str">
         <f>'Listado Objetos de Dominio'!A3</f>
         <v>Reserva</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-    </row>
-    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="157"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="157"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="157"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="59" t="str">
+      <c r="B3" s="158" t="str">
         <f>'Listado Objetos de Dominio'!B3</f>
         <v>Corresponde a cada una de las reservas que pude hacer el residente, es decir, el residente puede reservar una zona común, ejemplo: El residente 001 reserva la piscina con su respectivo turno.</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="158"/>
+      <c r="M3" s="158"/>
+      <c r="N3" s="158"/>
+      <c r="O3" s="158"/>
+      <c r="P3" s="158"/>
+      <c r="Q3" s="158"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>26</v>
       </c>
@@ -3941,23 +3941,23 @@
       <c r="Q4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="R4" s="147" t="s">
+      <c r="R4" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="S4" s="148" t="str">
+      <c r="S4" s="66" t="str">
         <f>A22</f>
         <v>Buscar</v>
       </c>
-      <c r="T4" s="149" t="str">
+      <c r="T4" s="67" t="str">
         <f>A23</f>
         <v>Modificar</v>
       </c>
-      <c r="U4" s="150" t="str">
+      <c r="U4" s="68" t="str">
         <f>A25</f>
         <v>Eliminar</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="27" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>42</v>
       </c>
@@ -3997,7 +3997,7 @@
       <c r="Q5" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="R5" s="151" t="s">
+      <c r="R5" s="69" t="s">
         <v>164</v>
       </c>
       <c r="S5" s="23" t="s">
@@ -4010,7 +4010,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>89</v>
       </c>
@@ -4046,7 +4046,7 @@
       <c r="Q6" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="R6" s="151" t="s">
+      <c r="R6" s="69" t="s">
         <v>164</v>
       </c>
       <c r="S6" s="23" t="s">
@@ -4059,7 +4059,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>88</v>
       </c>
@@ -4093,11 +4093,11 @@
       <c r="Q7" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="R7" s="151" t="s">
+      <c r="R7" s="69" t="s">
         <v>164</v>
       </c>
-      <c r="S7" s="23" t="s">
-        <v>167</v>
+      <c r="S7" s="35" t="s">
+        <v>208</v>
       </c>
       <c r="T7" s="24" t="s">
         <v>168</v>
@@ -4106,7 +4106,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>90</v>
       </c>
@@ -4140,11 +4140,11 @@
       <c r="Q8" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="R8" s="151" t="s">
+      <c r="R8" s="69" t="s">
         <v>164</v>
       </c>
       <c r="S8" s="35" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="T8" s="24" t="s">
         <v>166</v>
@@ -4153,15 +4153,15 @@
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="54" t="s">
+    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="153" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="56"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B10" s="154"/>
+      <c r="C10" s="155"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>49</v>
       </c>
@@ -4172,67 +4172,67 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="60" t="s">
+    <row r="12" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="159" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="161" t="s">
         <v>96</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="61"/>
-      <c r="B13" s="63"/>
+    <row r="13" spans="1:21" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="160"/>
+      <c r="B13" s="162"/>
       <c r="C13" s="31" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="72" t="s">
+    <row r="14" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="141" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="74" t="s">
+      <c r="B15" s="142"/>
+      <c r="C15" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="76" t="s">
+      <c r="D15" s="146"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="77"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="76" t="s">
+      <c r="I15" s="139"/>
+      <c r="J15" s="140"/>
+      <c r="K15" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="77"/>
-      <c r="O15" s="78"/>
-      <c r="P15" s="76" t="s">
+      <c r="L15" s="139"/>
+      <c r="M15" s="139"/>
+      <c r="N15" s="139"/>
+      <c r="O15" s="140"/>
+      <c r="P15" s="138" t="s">
         <v>54</v>
       </c>
-      <c r="Q15" s="78"/>
-      <c r="R15" s="76" t="s">
+      <c r="Q15" s="140"/>
+      <c r="R15" s="138" t="s">
         <v>55</v>
       </c>
-      <c r="S15" s="79"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="80"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="84" t="s">
+      <c r="S15" s="149"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="143"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="148"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="148"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="47" t="s">
         <v>56</v>
       </c>
       <c r="I16" s="32" t="s">
@@ -4244,12 +4244,12 @@
       <c r="K16" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="L16" s="85" t="s">
+      <c r="L16" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="M16" s="86"/>
-      <c r="N16" s="86"/>
-      <c r="O16" s="87"/>
+      <c r="M16" s="151"/>
+      <c r="N16" s="151"/>
+      <c r="O16" s="152"/>
       <c r="P16" s="32" t="s">
         <v>58</v>
       </c>
@@ -4263,37 +4263,37 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="152" t="s">
+    <row r="17" spans="1:19" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="130" t="s">
         <v>131</v>
       </c>
-      <c r="B17" s="153"/>
-      <c r="C17" s="88" t="s">
-        <v>194</v>
-      </c>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="91" t="str">
+      <c r="B17" s="131"/>
+      <c r="C17" s="107" t="s">
+        <v>192</v>
+      </c>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="88" t="str">
         <f>_xlfn.CONCAT("datos",B2)</f>
         <v>datosReserva</v>
       </c>
-      <c r="I17" s="92" t="str">
+      <c r="I17" s="136" t="str">
         <f>B2</f>
         <v>Reserva</v>
       </c>
-      <c r="J17" s="91" t="str">
+      <c r="J17" s="88" t="str">
         <f>_xlfn.CONCAT("Corresponde al objeto que internamente contiene los datos necesarios para crear una nueva ",$B$2,)</f>
         <v>Corresponde al objeto que internamente contiene los datos necesarios para crear una nueva Reserva</v>
       </c>
-      <c r="K17" s="94"/>
-      <c r="L17" s="95"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="97"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="116"/>
+      <c r="M17" s="117"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="118"/>
       <c r="P17" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q17" s="13" t="s">
         <v>134</v>
@@ -4301,143 +4301,143 @@
       <c r="R17" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="S17" s="98" t="s">
+      <c r="S17" s="49" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="154"/>
-      <c r="B18" s="155"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="176"/>
-      <c r="E18" s="176"/>
-      <c r="F18" s="176"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="102"/>
-      <c r="K18" s="105"/>
-      <c r="L18" s="106"/>
-      <c r="M18" s="107"/>
-      <c r="N18" s="107"/>
-      <c r="O18" s="108"/>
+    <row r="18" spans="1:19" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="132"/>
+      <c r="B18" s="133"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="137"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="119"/>
+      <c r="M18" s="120"/>
+      <c r="N18" s="120"/>
+      <c r="O18" s="121"/>
       <c r="P18" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q18" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="R18" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="S18" s="49" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="132"/>
+      <c r="B19" s="133"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="112"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="119"/>
+      <c r="M19" s="120"/>
+      <c r="N19" s="120"/>
+      <c r="O19" s="121"/>
+      <c r="P19" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="Q18" s="13" t="s">
+      <c r="Q19" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="R18" s="13" t="s">
+      <c r="R19" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="S18" s="98" t="s">
+      <c r="S19" s="49" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="154"/>
-      <c r="B19" s="155"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="176"/>
-      <c r="E19" s="176"/>
-      <c r="F19" s="176"/>
-      <c r="G19" s="101"/>
-      <c r="H19" s="102"/>
-      <c r="I19" s="103"/>
-      <c r="J19" s="102"/>
-      <c r="K19" s="105"/>
-      <c r="L19" s="106"/>
-      <c r="M19" s="107"/>
-      <c r="N19" s="107"/>
-      <c r="O19" s="108"/>
-      <c r="P19" s="14" t="s">
+    <row r="20" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="132"/>
+      <c r="B20" s="133"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="137"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="119"/>
+      <c r="M20" s="120"/>
+      <c r="N20" s="120"/>
+      <c r="O20" s="121"/>
+      <c r="P20" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="Q19" s="13" t="s">
+      <c r="Q20" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="R19" s="13" t="s">
+      <c r="R20" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="S19" s="98" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="154"/>
-      <c r="B20" s="155"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="176"/>
-      <c r="E20" s="176"/>
-      <c r="F20" s="176"/>
-      <c r="G20" s="101"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="103"/>
-      <c r="J20" s="102"/>
-      <c r="K20" s="105"/>
-      <c r="L20" s="106"/>
-      <c r="M20" s="107"/>
-      <c r="N20" s="107"/>
-      <c r="O20" s="108"/>
-      <c r="P20" s="14" t="s">
+      <c r="S20" s="49" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="134"/>
+      <c r="B21" s="135"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="Q20" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="R20" s="13" t="s">
+      <c r="Q21" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="S20" s="98" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="156"/>
-      <c r="B21" s="157"/>
-      <c r="C21" s="177"/>
-      <c r="D21" s="178"/>
-      <c r="E21" s="178"/>
-      <c r="F21" s="178"/>
-      <c r="G21" s="179"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="158"/>
-      <c r="K21" s="105"/>
-      <c r="L21" s="115"/>
-      <c r="M21" s="116"/>
-      <c r="N21" s="116"/>
-      <c r="O21" s="117"/>
-      <c r="P21" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q21" s="13" t="s">
+      <c r="R21" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="R21" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="S21" s="98" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="118" t="s">
+      <c r="S21" s="49" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="122" t="s">
         <v>151</v>
       </c>
-      <c r="B22" s="119"/>
-      <c r="C22" s="120" t="s">
-        <v>195</v>
-      </c>
-      <c r="D22" s="121"/>
-      <c r="E22" s="121"/>
-      <c r="F22" s="121"/>
-      <c r="G22" s="122"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="124" t="s">
+        <v>193</v>
+      </c>
+      <c r="D22" s="125"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="126"/>
       <c r="H22" s="34" t="str">
         <f>_xlfn.CONCAT("datos",B2)</f>
         <v>datosReserva</v>
       </c>
-      <c r="I22" s="123" t="str">
+      <c r="I22" s="60" t="str">
         <f>B2</f>
         <v>Reserva</v>
       </c>
@@ -4446,16 +4446,16 @@
         <v>Corresponde a un objeto que contiene los filtros de consulta de una  Reserva en un conjunto residencial.</v>
       </c>
       <c r="K22" s="46" t="s">
-        <v>172</v>
-      </c>
-      <c r="L22" s="124" t="s">
-        <v>203</v>
-      </c>
-      <c r="M22" s="125"/>
-      <c r="N22" s="125"/>
-      <c r="O22" s="126"/>
+        <v>171</v>
+      </c>
+      <c r="L22" s="127" t="s">
+        <v>201</v>
+      </c>
+      <c r="M22" s="128"/>
+      <c r="N22" s="128"/>
+      <c r="O22" s="129"/>
       <c r="P22" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q22" s="35" t="s">
         <v>155</v>
@@ -4463,93 +4463,93 @@
       <c r="R22" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="S22" s="127" t="s">
+      <c r="S22" s="61" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="168" t="s">
+    <row r="23" spans="1:19" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="103" t="s">
         <v>156</v>
       </c>
-      <c r="B23" s="169"/>
-      <c r="C23" s="160" t="s">
-        <v>196</v>
-      </c>
-      <c r="D23" s="161"/>
-      <c r="E23" s="161"/>
-      <c r="F23" s="161"/>
-      <c r="G23" s="162"/>
-      <c r="H23" s="170" t="str">
+      <c r="B23" s="104"/>
+      <c r="C23" s="91" t="s">
+        <v>194</v>
+      </c>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="99" t="str">
         <f>_xlfn.CONCAT("datos",B2)</f>
         <v>datosReserva</v>
       </c>
-      <c r="I23" s="172" t="str">
+      <c r="I23" s="101" t="str">
         <f>B2</f>
         <v>Reserva</v>
       </c>
-      <c r="J23" s="170" t="str">
+      <c r="J23" s="99" t="str">
         <f>_xlfn.CONCAT("Corresponde a los datos que se van a modificar de la ",$B$2)</f>
         <v>Corresponde a los datos que se van a modificar de la Reserva</v>
       </c>
-      <c r="K23" s="166"/>
-      <c r="L23" s="160"/>
-      <c r="M23" s="161"/>
-      <c r="N23" s="161"/>
-      <c r="O23" s="162"/>
-      <c r="P23" s="136" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q23" s="137" t="s">
+      <c r="K23" s="97"/>
+      <c r="L23" s="91"/>
+      <c r="M23" s="92"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="93"/>
+      <c r="P23" s="62" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q23" s="63" t="s">
         <v>159</v>
       </c>
-      <c r="R23" s="137" t="s">
-        <v>189</v>
-      </c>
-      <c r="S23" s="138" t="s">
+      <c r="R23" s="63" t="s">
+        <v>188</v>
+      </c>
+      <c r="S23" s="64" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="64"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="163"/>
-      <c r="D24" s="164"/>
-      <c r="E24" s="164"/>
-      <c r="F24" s="164"/>
-      <c r="G24" s="165"/>
-      <c r="H24" s="171"/>
-      <c r="I24" s="173"/>
-      <c r="J24" s="171"/>
-      <c r="K24" s="167"/>
-      <c r="L24" s="163"/>
-      <c r="M24" s="164"/>
-      <c r="N24" s="164"/>
-      <c r="O24" s="165"/>
-      <c r="P24" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q24" s="137" t="s">
-        <v>183</v>
-      </c>
-      <c r="R24" s="137" t="s">
-        <v>186</v>
-      </c>
-      <c r="S24" s="159" t="s">
+    <row r="24" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="105"/>
+      <c r="B24" s="106"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="98"/>
+      <c r="L24" s="94"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="96"/>
+      <c r="P24" s="62" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q24" s="63" t="s">
+        <v>182</v>
+      </c>
+      <c r="R24" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="S24" s="70" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="139" t="s">
+    <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="80" t="s">
         <v>162</v>
       </c>
-      <c r="B25" s="140"/>
-      <c r="C25" s="141" t="s">
-        <v>197</v>
-      </c>
-      <c r="D25" s="142"/>
-      <c r="E25" s="142"/>
-      <c r="F25" s="142"/>
-      <c r="G25" s="143"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="82" t="s">
+        <v>195</v>
+      </c>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="84"/>
       <c r="H25" s="39" t="s">
         <v>42</v>
       </c>
@@ -4561,18 +4561,18 @@
         <v>Corresponde al identificador de la Reserva  que se quiere dar de baja.</v>
       </c>
       <c r="K25" s="40"/>
-      <c r="L25" s="144"/>
-      <c r="M25" s="145"/>
-      <c r="N25" s="145"/>
-      <c r="O25" s="146"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="87"/>
       <c r="P25" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q25" s="41" t="s">
         <v>159</v>
       </c>
       <c r="R25" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S25" s="41" t="s">
         <v>161</v>
@@ -4580,6 +4580,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="B3:Q3"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="A17:B21"/>
+    <mergeCell ref="I17:I20"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="C15:G16"/>
+    <mergeCell ref="H15:J15"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="L25:O25"/>
@@ -4596,22 +4612,6 @@
     <mergeCell ref="L17:O20"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C22:G22"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="A17:B21"/>
-    <mergeCell ref="I17:I20"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="C15:G16"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="B3:Q3"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -4642,107 +4642,107 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037CC029-DC44-4605-90F4-CA51C57B9385}">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView topLeftCell="R21" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.33203125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="79.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.28515625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="79.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="94.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="132.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="46.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="50.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="66.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="52.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.44140625" style="8"/>
+    <col min="17" max="17" width="94.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="132.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="46.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="50.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="66.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="52.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="156"/>
+      <c r="P1" s="156"/>
+      <c r="Q1" s="156"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="58" t="str">
+      <c r="B2" s="157" t="str">
         <f>'Listado Objetos de Dominio'!A5</f>
         <v>Residente</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-    </row>
-    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="157"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="157"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="157"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="59" t="str">
+      <c r="B3" s="158" t="str">
         <f>'Listado Objetos de Dominio'!B5</f>
         <v>Corresponde a la persona que puede realizar una reserva para una zona común.</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="158"/>
+      <c r="M3" s="158"/>
+      <c r="N3" s="158"/>
+      <c r="O3" s="158"/>
+      <c r="P3" s="158"/>
+      <c r="Q3" s="158"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>26</v>
       </c>
@@ -4794,23 +4794,23 @@
       <c r="Q4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="R4" s="147" t="s">
+      <c r="R4" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="S4" s="148" t="str">
+      <c r="S4" s="66" t="str">
         <f>A30</f>
         <v>Buscar</v>
       </c>
-      <c r="T4" s="149" t="str">
+      <c r="T4" s="67" t="str">
         <f>A31</f>
         <v>Modificar</v>
       </c>
-      <c r="U4" s="150" t="str">
+      <c r="U4" s="68" t="str">
         <f>A32</f>
         <v>Eliminar</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="27" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
         <v>42</v>
       </c>
@@ -4850,7 +4850,7 @@
       <c r="Q5" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="R5" s="151" t="s">
+      <c r="R5" s="69" t="s">
         <v>164</v>
       </c>
       <c r="S5" s="23" t="s">
@@ -4863,7 +4863,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>46</v>
       </c>
@@ -4905,7 +4905,7 @@
       <c r="Q6" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="R6" s="151" t="s">
+      <c r="R6" s="69" t="s">
         <v>164</v>
       </c>
       <c r="S6" s="23" t="s">
@@ -4918,7 +4918,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>101</v>
       </c>
@@ -4960,7 +4960,7 @@
       <c r="Q7" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="R7" s="151" t="s">
+      <c r="R7" s="69" t="s">
         <v>164</v>
       </c>
       <c r="S7" s="23" t="s">
@@ -4973,7 +4973,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>103</v>
       </c>
@@ -5015,7 +5015,7 @@
       <c r="Q8" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="R8" s="151" t="s">
+      <c r="R8" s="69" t="s">
         <v>164</v>
       </c>
       <c r="S8" s="23" t="s">
@@ -5028,7 +5028,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>105</v>
       </c>
@@ -5064,7 +5064,7 @@
       <c r="Q9" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="R9" s="151" t="s">
+      <c r="R9" s="69" t="s">
         <v>164</v>
       </c>
       <c r="S9" s="23" t="s">
@@ -5077,7 +5077,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>108</v>
       </c>
@@ -5113,7 +5113,7 @@
       <c r="Q10" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="R10" s="151" t="s">
+      <c r="R10" s="69" t="s">
         <v>164</v>
       </c>
       <c r="S10" s="23" t="s">
@@ -5126,7 +5126,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>111</v>
       </c>
@@ -5164,7 +5164,7 @@
       <c r="Q11" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="R11" s="151" t="s">
+      <c r="R11" s="69" t="s">
         <v>164</v>
       </c>
       <c r="S11" s="23" t="s">
@@ -5177,7 +5177,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
         <v>113</v>
       </c>
@@ -5219,7 +5219,7 @@
       <c r="Q12" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="R12" s="151" t="s">
+      <c r="R12" s="69" t="s">
         <v>164</v>
       </c>
       <c r="S12" s="23" t="s">
@@ -5232,7 +5232,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="69" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>116</v>
       </c>
@@ -5274,7 +5274,7 @@
       <c r="Q13" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="R13" s="151" t="s">
+      <c r="R13" s="69" t="s">
         <v>164</v>
       </c>
       <c r="S13" s="23" t="s">
@@ -5287,7 +5287,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>120</v>
       </c>
@@ -5323,11 +5323,11 @@
       <c r="Q14" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="R14" s="151" t="s">
+      <c r="R14" s="69" t="s">
         <v>164</v>
       </c>
       <c r="S14" s="35" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="T14" s="24" t="s">
         <v>168</v>
@@ -5336,25 +5336,25 @@
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:21" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="66" t="s">
+    <row r="15" spans="1:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="176" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="E16" s="66" t="s">
+      <c r="B16" s="176"/>
+      <c r="C16" s="176"/>
+      <c r="E16" s="176" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="I16" s="66" t="s">
+      <c r="F16" s="176"/>
+      <c r="G16" s="176"/>
+      <c r="I16" s="176" t="s">
         <v>48</v>
       </c>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-    </row>
-    <row r="17" spans="1:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J16" s="176"/>
+      <c r="K16" s="176"/>
+    </row>
+    <row r="17" spans="1:19" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>49</v>
       </c>
@@ -5383,115 +5383,115 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="67" t="s">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="174" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="175" t="s">
         <v>126</v>
       </c>
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="173" t="s">
         <v>103</v>
       </c>
-      <c r="E18" s="68" t="s">
+      <c r="E18" s="175" t="s">
         <v>127</v>
       </c>
-      <c r="F18" s="68" t="s">
+      <c r="F18" s="175" t="s">
         <v>128</v>
       </c>
-      <c r="G18" s="69" t="s">
+      <c r="G18" s="173" t="s">
         <v>111</v>
       </c>
       <c r="H18" s="45"/>
-      <c r="I18" s="67" t="s">
+      <c r="I18" s="174" t="s">
         <v>129</v>
       </c>
-      <c r="J18" s="68" t="s">
+      <c r="J18" s="175" t="s">
         <v>130</v>
       </c>
-      <c r="K18" s="69" t="s">
+      <c r="K18" s="173" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="67"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="69"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="69"/>
+    <row r="19" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="174"/>
+      <c r="B19" s="175"/>
+      <c r="C19" s="173"/>
+      <c r="E19" s="175"/>
+      <c r="F19" s="175"/>
+      <c r="G19" s="173"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="69"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="67"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="69" t="s">
+      <c r="I19" s="174"/>
+      <c r="J19" s="175"/>
+      <c r="K19" s="173"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="174"/>
+      <c r="B20" s="175"/>
+      <c r="C20" s="173" t="s">
         <v>105</v>
       </c>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="69"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="69"/>
-    </row>
-    <row r="21" spans="1:19" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="67"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="69"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="69"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="69"/>
-    </row>
-    <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="72" t="s">
+      <c r="E20" s="175"/>
+      <c r="F20" s="175"/>
+      <c r="G20" s="173"/>
+      <c r="I20" s="174"/>
+      <c r="J20" s="175"/>
+      <c r="K20" s="173"/>
+    </row>
+    <row r="21" spans="1:19" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="174"/>
+      <c r="B21" s="175"/>
+      <c r="C21" s="173"/>
+      <c r="E21" s="175"/>
+      <c r="F21" s="175"/>
+      <c r="G21" s="173"/>
+      <c r="I21" s="174"/>
+      <c r="J21" s="175"/>
+      <c r="K21" s="173"/>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="141" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="73"/>
-      <c r="C23" s="74" t="s">
+      <c r="B23" s="142"/>
+      <c r="C23" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="76" t="s">
+      <c r="D23" s="146"/>
+      <c r="E23" s="146"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="I23" s="77"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="76" t="s">
+      <c r="I23" s="139"/>
+      <c r="J23" s="140"/>
+      <c r="K23" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="L23" s="77"/>
-      <c r="M23" s="77"/>
-      <c r="N23" s="77"/>
-      <c r="O23" s="78"/>
-      <c r="P23" s="76" t="s">
+      <c r="L23" s="139"/>
+      <c r="M23" s="139"/>
+      <c r="N23" s="139"/>
+      <c r="O23" s="140"/>
+      <c r="P23" s="138" t="s">
         <v>54</v>
       </c>
-      <c r="Q23" s="78"/>
-      <c r="R23" s="76" t="s">
+      <c r="Q23" s="140"/>
+      <c r="R23" s="138" t="s">
         <v>55</v>
       </c>
-      <c r="S23" s="79"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="80"/>
-      <c r="B24" s="81"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="84" t="s">
+      <c r="S23" s="149"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="143"/>
+      <c r="B24" s="144"/>
+      <c r="C24" s="147"/>
+      <c r="D24" s="148"/>
+      <c r="E24" s="148"/>
+      <c r="F24" s="148"/>
+      <c r="G24" s="144"/>
+      <c r="H24" s="47" t="s">
         <v>56</v>
       </c>
       <c r="I24" s="32" t="s">
@@ -5503,12 +5503,12 @@
       <c r="K24" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="L24" s="85" t="s">
+      <c r="L24" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="M24" s="86"/>
-      <c r="N24" s="86"/>
-      <c r="O24" s="87"/>
+      <c r="M24" s="151"/>
+      <c r="N24" s="151"/>
+      <c r="O24" s="152"/>
       <c r="P24" s="32" t="s">
         <v>58</v>
       </c>
@@ -5522,35 +5522,35 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="152" t="s">
+    <row r="25" spans="1:19" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="130" t="s">
         <v>131</v>
       </c>
-      <c r="B25" s="153"/>
-      <c r="C25" s="88" t="s">
+      <c r="B25" s="131"/>
+      <c r="C25" s="107" t="s">
         <v>132</v>
       </c>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="91" t="str">
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="88" t="str">
         <f>_xlfn.CONCAT("datos",B2)</f>
         <v>datosResidente</v>
       </c>
-      <c r="I25" s="92" t="str">
+      <c r="I25" s="136" t="str">
         <f>B2</f>
         <v>Residente</v>
       </c>
-      <c r="J25" s="93" t="str">
+      <c r="J25" s="171" t="str">
         <f>_xlfn.CONCAT("Corresponde al objeto que internamente contiene los datos necesarios para crear un nuevo ",B2,)</f>
         <v>Corresponde al objeto que internamente contiene los datos necesarios para crear un nuevo Residente</v>
       </c>
-      <c r="K25" s="94"/>
-      <c r="L25" s="95"/>
-      <c r="M25" s="96"/>
-      <c r="N25" s="96"/>
-      <c r="O25" s="97"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="116"/>
+      <c r="M25" s="117"/>
+      <c r="N25" s="117"/>
+      <c r="O25" s="118"/>
       <c r="P25" s="14" t="s">
         <v>133</v>
       </c>
@@ -5560,26 +5560,26 @@
       <c r="R25" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="S25" s="98" t="s">
+      <c r="S25" s="49" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="154"/>
-      <c r="B26" s="155"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="101"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="103"/>
-      <c r="J26" s="104"/>
-      <c r="K26" s="105"/>
-      <c r="L26" s="106"/>
-      <c r="M26" s="107"/>
-      <c r="N26" s="107"/>
-      <c r="O26" s="108"/>
+    <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="132"/>
+      <c r="B26" s="133"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="112"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="137"/>
+      <c r="J26" s="172"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="119"/>
+      <c r="M26" s="120"/>
+      <c r="N26" s="120"/>
+      <c r="O26" s="121"/>
       <c r="P26" s="14" t="s">
         <v>137</v>
       </c>
@@ -5589,26 +5589,26 @@
       <c r="R26" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="S26" s="98" t="s">
+      <c r="S26" s="49" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="154"/>
-      <c r="B27" s="155"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="100"/>
-      <c r="G27" s="101"/>
-      <c r="H27" s="102"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="104"/>
-      <c r="K27" s="105"/>
-      <c r="L27" s="106"/>
-      <c r="M27" s="107"/>
-      <c r="N27" s="107"/>
-      <c r="O27" s="108"/>
+    <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="132"/>
+      <c r="B27" s="133"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="112"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="137"/>
+      <c r="J27" s="172"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="119"/>
+      <c r="M27" s="120"/>
+      <c r="N27" s="120"/>
+      <c r="O27" s="121"/>
       <c r="P27" s="14" t="s">
         <v>140</v>
       </c>
@@ -5618,26 +5618,26 @@
       <c r="R27" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="S27" s="98" t="s">
+      <c r="S27" s="49" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="154"/>
-      <c r="B28" s="155"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="100"/>
-      <c r="G28" s="101"/>
-      <c r="H28" s="102"/>
-      <c r="I28" s="103"/>
-      <c r="J28" s="104"/>
-      <c r="K28" s="105"/>
-      <c r="L28" s="106"/>
-      <c r="M28" s="107"/>
-      <c r="N28" s="107"/>
-      <c r="O28" s="108"/>
+    <row r="28" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="132"/>
+      <c r="B28" s="133"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="112"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="137"/>
+      <c r="J28" s="172"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="119"/>
+      <c r="M28" s="120"/>
+      <c r="N28" s="120"/>
+      <c r="O28" s="121"/>
       <c r="P28" s="14" t="s">
         <v>144</v>
       </c>
@@ -5647,26 +5647,26 @@
       <c r="R28" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="S28" s="98" t="s">
+      <c r="S28" s="49" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="156"/>
-      <c r="B29" s="157"/>
-      <c r="C29" s="109"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="111"/>
-      <c r="H29" s="112"/>
-      <c r="I29" s="113"/>
-      <c r="J29" s="114"/>
-      <c r="K29" s="105"/>
-      <c r="L29" s="115"/>
-      <c r="M29" s="116"/>
-      <c r="N29" s="116"/>
-      <c r="O29" s="117"/>
+    <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="134"/>
+      <c r="B29" s="135"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="59"/>
       <c r="P29" s="14" t="s">
         <v>148</v>
       </c>
@@ -5676,27 +5676,27 @@
       <c r="R29" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="S29" s="98" t="s">
+      <c r="S29" s="49" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="118" t="s">
+    <row r="30" spans="1:19" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="122" t="s">
         <v>151</v>
       </c>
-      <c r="B30" s="119"/>
-      <c r="C30" s="120" t="s">
+      <c r="B30" s="123"/>
+      <c r="C30" s="124" t="s">
         <v>152</v>
       </c>
-      <c r="D30" s="121"/>
-      <c r="E30" s="121"/>
-      <c r="F30" s="121"/>
-      <c r="G30" s="122"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="125"/>
+      <c r="G30" s="126"/>
       <c r="H30" s="34" t="str">
         <f>_xlfn.CONCAT("datos",B2)</f>
         <v>datosResidente</v>
       </c>
-      <c r="I30" s="123" t="str">
+      <c r="I30" s="60" t="str">
         <f>B2</f>
         <v>Residente</v>
       </c>
@@ -5707,12 +5707,12 @@
       <c r="K30" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="L30" s="124" t="s">
-        <v>173</v>
-      </c>
-      <c r="M30" s="125"/>
-      <c r="N30" s="125"/>
-      <c r="O30" s="126"/>
+      <c r="L30" s="127" t="s">
+        <v>172</v>
+      </c>
+      <c r="M30" s="128"/>
+      <c r="N30" s="128"/>
+      <c r="O30" s="129"/>
       <c r="P30" s="23" t="s">
         <v>154</v>
       </c>
@@ -5722,22 +5722,22 @@
       <c r="R30" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="S30" s="127" t="s">
+      <c r="S30" s="61" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="128" t="s">
+    <row r="31" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="163" t="s">
         <v>156</v>
       </c>
-      <c r="B31" s="129"/>
-      <c r="C31" s="130" t="s">
+      <c r="B31" s="164"/>
+      <c r="C31" s="165" t="s">
         <v>157</v>
       </c>
-      <c r="D31" s="131"/>
-      <c r="E31" s="131"/>
-      <c r="F31" s="131"/>
-      <c r="G31" s="132"/>
+      <c r="D31" s="166"/>
+      <c r="E31" s="166"/>
+      <c r="F31" s="166"/>
+      <c r="G31" s="167"/>
       <c r="H31" s="36" t="str">
         <f>_xlfn.CONCAT("datos",B2)</f>
         <v>datosResidente</v>
@@ -5751,35 +5751,35 @@
         <v>Corresponde a los datos que se van a modificar del Residente</v>
       </c>
       <c r="K31" s="38"/>
-      <c r="L31" s="133"/>
-      <c r="M31" s="134"/>
-      <c r="N31" s="134"/>
-      <c r="O31" s="135"/>
-      <c r="P31" s="136" t="s">
+      <c r="L31" s="168"/>
+      <c r="M31" s="169"/>
+      <c r="N31" s="169"/>
+      <c r="O31" s="170"/>
+      <c r="P31" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="Q31" s="137" t="s">
+      <c r="Q31" s="63" t="s">
         <v>159</v>
       </c>
-      <c r="R31" s="137" t="s">
+      <c r="R31" s="63" t="s">
         <v>160</v>
       </c>
-      <c r="S31" s="138" t="s">
+      <c r="S31" s="64" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="139" t="s">
+    <row r="32" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="80" t="s">
         <v>162</v>
       </c>
-      <c r="B32" s="140"/>
-      <c r="C32" s="141" t="s">
+      <c r="B32" s="81"/>
+      <c r="C32" s="82" t="s">
         <v>163</v>
       </c>
-      <c r="D32" s="142"/>
-      <c r="E32" s="142"/>
-      <c r="F32" s="142"/>
-      <c r="G32" s="143"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="84"/>
       <c r="H32" s="39" t="s">
         <v>42</v>
       </c>
@@ -5791,10 +5791,10 @@
         <v>Corresponde al identificador del Residente  que se quiere dar de baja.</v>
       </c>
       <c r="K32" s="40"/>
-      <c r="L32" s="144"/>
-      <c r="M32" s="145"/>
-      <c r="N32" s="145"/>
-      <c r="O32" s="146"/>
+      <c r="L32" s="85"/>
+      <c r="M32" s="86"/>
+      <c r="N32" s="86"/>
+      <c r="O32" s="87"/>
       <c r="P32" s="25" t="s">
         <v>158</v>
       </c>
@@ -5810,6 +5810,29 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="B3:Q3"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="C23:G24"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:O23"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="L32:O32"/>
@@ -5825,29 +5848,6 @@
     <mergeCell ref="I25:I28"/>
     <mergeCell ref="J25:J28"/>
     <mergeCell ref="L25:O28"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="C23:G24"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:O23"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="J18:J21"/>
-    <mergeCell ref="K18:K21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="B3:Q3"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="I16:K16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{1AE4FE85-AF13-4BAA-9ECE-73FAE508027B}"/>
@@ -5880,107 +5880,107 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC57795F-B02D-497B-A04E-44BC1D3D4128}">
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="25.88671875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.33203125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="79.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.28515625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="79.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="94.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="132.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="46.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="50.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="66.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="52.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.44140625" style="8"/>
+    <col min="17" max="17" width="94.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="132.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="46.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="50.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="66.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="52.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="156"/>
+      <c r="P1" s="156"/>
+      <c r="Q1" s="156"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="58" t="str">
+      <c r="B2" s="157" t="str">
         <f>'Listado Objetos de Dominio'!A4</f>
         <v>Turno</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-    </row>
-    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="157"/>
+      <c r="N2" s="157"/>
+      <c r="O2" s="157"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="157"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="59" t="str">
+      <c r="B3" s="158" t="str">
         <f>'Listado Objetos de Dominio'!B4</f>
         <v>Corresponde a los turnos que un residente puede reservar en una agenda, es decir, el residente toma un turno que esta disponible de una agenda que anteriormente ya esta programada.</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="59"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="158"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="158"/>
+      <c r="K3" s="158"/>
+      <c r="L3" s="158"/>
+      <c r="M3" s="158"/>
+      <c r="N3" s="158"/>
+      <c r="O3" s="158"/>
+      <c r="P3" s="158"/>
+      <c r="Q3" s="158"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>26</v>
       </c>
@@ -6032,23 +6032,23 @@
       <c r="Q4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="R4" s="147" t="s">
+      <c r="R4" s="65" t="s">
         <v>131</v>
       </c>
-      <c r="S4" s="148" t="str">
+      <c r="S4" s="66" t="str">
         <f>A23</f>
         <v>Buscar</v>
       </c>
-      <c r="T4" s="149" t="str">
+      <c r="T4" s="67" t="str">
         <f>A24</f>
         <v>Modificar</v>
       </c>
-      <c r="U4" s="150" t="str">
+      <c r="U4" s="68" t="str">
         <f>A25</f>
         <v>Eliminar</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="27" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>42</v>
       </c>
@@ -6088,7 +6088,7 @@
       <c r="Q5" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="R5" s="151" t="s">
+      <c r="R5" s="69" t="s">
         <v>164</v>
       </c>
       <c r="S5" s="23" t="s">
@@ -6101,7 +6101,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>75</v>
       </c>
@@ -6143,7 +6143,7 @@
       <c r="Q6" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="R6" s="151" t="s">
+      <c r="R6" s="69" t="s">
         <v>164</v>
       </c>
       <c r="S6" s="23" t="s">
@@ -6156,7 +6156,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>69</v>
       </c>
@@ -6192,7 +6192,7 @@
       <c r="Q7" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="R7" s="151" t="s">
+      <c r="R7" s="69" t="s">
         <v>164</v>
       </c>
       <c r="S7" s="35" t="s">
@@ -6205,7 +6205,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>70</v>
       </c>
@@ -6241,7 +6241,7 @@
       <c r="Q8" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="R8" s="151" t="s">
+      <c r="R8" s="69" t="s">
         <v>164</v>
       </c>
       <c r="S8" s="35" t="s">
@@ -6254,7 +6254,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
         <v>76</v>
       </c>
@@ -6290,7 +6290,7 @@
       <c r="Q9" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="R9" s="151" t="s">
+      <c r="R9" s="69" t="s">
         <v>164</v>
       </c>
       <c r="S9" s="35" t="s">
@@ -6303,7 +6303,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
         <v>71</v>
       </c>
@@ -6337,11 +6337,11 @@
       <c r="Q10" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="R10" s="151" t="s">
+      <c r="R10" s="69" t="s">
         <v>164</v>
       </c>
       <c r="S10" s="35" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="T10" s="24" t="s">
         <v>166</v>
@@ -6350,15 +6350,15 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="54" t="s">
+    <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="153" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="56"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B12" s="154"/>
+      <c r="C12" s="155"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>49</v>
       </c>
@@ -6369,81 +6369,81 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="60" t="s">
+    <row r="14" spans="1:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="159" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="161" t="s">
         <v>98</v>
       </c>
       <c r="C14" s="30" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="70"/>
-      <c r="B15" s="71"/>
+    <row r="15" spans="1:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="180"/>
+      <c r="B15" s="181"/>
       <c r="C15" s="30" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="70"/>
-      <c r="B16" s="71"/>
+    <row r="16" spans="1:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="180"/>
+      <c r="B16" s="181"/>
       <c r="C16" s="30" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="61"/>
-      <c r="B17" s="63"/>
+    <row r="17" spans="1:19" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="160"/>
+      <c r="B17" s="162"/>
       <c r="C17" s="42" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="72" t="s">
+    <row r="18" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="141" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="73"/>
-      <c r="C19" s="74" t="s">
+      <c r="B19" s="142"/>
+      <c r="C19" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="76" t="s">
+      <c r="D19" s="146"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="77"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="76" t="s">
+      <c r="I19" s="139"/>
+      <c r="J19" s="140"/>
+      <c r="K19" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="78"/>
-      <c r="P19" s="76" t="s">
+      <c r="L19" s="139"/>
+      <c r="M19" s="139"/>
+      <c r="N19" s="139"/>
+      <c r="O19" s="140"/>
+      <c r="P19" s="138" t="s">
         <v>54</v>
       </c>
-      <c r="Q19" s="78"/>
-      <c r="R19" s="76" t="s">
+      <c r="Q19" s="140"/>
+      <c r="R19" s="138" t="s">
         <v>55</v>
       </c>
-      <c r="S19" s="79"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="80"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="84" t="s">
+      <c r="S19" s="149"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="143"/>
+      <c r="B20" s="144"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="148"/>
+      <c r="E20" s="148"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="47" t="s">
         <v>56</v>
       </c>
       <c r="I20" s="32" t="s">
@@ -6455,12 +6455,12 @@
       <c r="K20" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="L20" s="85" t="s">
+      <c r="L20" s="150" t="s">
         <v>2</v>
       </c>
-      <c r="M20" s="86"/>
-      <c r="N20" s="86"/>
-      <c r="O20" s="87"/>
+      <c r="M20" s="151"/>
+      <c r="N20" s="151"/>
+      <c r="O20" s="152"/>
       <c r="P20" s="32" t="s">
         <v>58</v>
       </c>
@@ -6474,89 +6474,89 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="152" t="s">
+    <row r="21" spans="1:19" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="130" t="s">
         <v>131</v>
       </c>
-      <c r="B21" s="153"/>
-      <c r="C21" s="88" t="s">
-        <v>198</v>
-      </c>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="91" t="str">
+      <c r="B21" s="131"/>
+      <c r="C21" s="107" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" s="108"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="88" t="str">
         <f>_xlfn.CONCAT("datos",B2)</f>
         <v>datosTurno</v>
       </c>
-      <c r="I21" s="91" t="str">
+      <c r="I21" s="88" t="str">
         <f>B2</f>
         <v>Turno</v>
       </c>
-      <c r="J21" s="91" t="str">
+      <c r="J21" s="88" t="str">
         <f>_xlfn.CONCAT("Corresponde al objeto que internamente contiene los datos necesarios para crear un nuevo ",$B$2,)</f>
         <v>Corresponde al objeto que internamente contiene los datos necesarios para crear un nuevo Turno</v>
       </c>
-      <c r="K21" s="94"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="96"/>
-      <c r="N21" s="96"/>
-      <c r="O21" s="97"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="116"/>
+      <c r="M21" s="117"/>
+      <c r="N21" s="117"/>
+      <c r="O21" s="118"/>
       <c r="P21" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q21" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="R21" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="S21" s="98" t="s">
+      <c r="S21" s="49" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="154"/>
-      <c r="B22" s="155"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="176"/>
-      <c r="E22" s="176"/>
-      <c r="F22" s="176"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="102"/>
-      <c r="J22" s="102"/>
-      <c r="K22" s="105"/>
-      <c r="L22" s="106"/>
-      <c r="M22" s="107"/>
-      <c r="N22" s="107"/>
-      <c r="O22" s="108"/>
+    <row r="22" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="132"/>
+      <c r="B22" s="133"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="119"/>
+      <c r="M22" s="120"/>
+      <c r="N22" s="120"/>
+      <c r="O22" s="121"/>
       <c r="P22" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q22" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="R22" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="R22" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="S22" s="98" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="118" t="s">
+      <c r="S22" s="49" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="122" t="s">
         <v>151</v>
       </c>
-      <c r="B23" s="119"/>
-      <c r="C23" s="120" t="s">
-        <v>199</v>
-      </c>
-      <c r="D23" s="121"/>
-      <c r="E23" s="121"/>
-      <c r="F23" s="121"/>
-      <c r="G23" s="122"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="124" t="s">
+        <v>197</v>
+      </c>
+      <c r="D23" s="125"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="126"/>
       <c r="H23" s="34" t="str">
         <f>_xlfn.CONCAT("datos",B2)</f>
         <v>datosTurno</v>
@@ -6570,16 +6570,16 @@
         <v>Corresponde a un objeto que contiene los filtros de consulta de un  Turno en un conjunto residencial.</v>
       </c>
       <c r="K23" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="L23" s="127" t="s">
         <v>202</v>
       </c>
-      <c r="L23" s="124" t="s">
-        <v>204</v>
-      </c>
-      <c r="M23" s="125"/>
-      <c r="N23" s="125"/>
-      <c r="O23" s="126"/>
+      <c r="M23" s="128"/>
+      <c r="N23" s="128"/>
+      <c r="O23" s="129"/>
       <c r="P23" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q23" s="35" t="s">
         <v>155</v>
@@ -6587,64 +6587,64 @@
       <c r="R23" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="S23" s="127" t="s">
+      <c r="S23" s="61" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="168" t="s">
+    <row r="24" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="103" t="s">
         <v>156</v>
       </c>
-      <c r="B24" s="169"/>
-      <c r="C24" s="180" t="s">
-        <v>200</v>
-      </c>
-      <c r="D24" s="181"/>
-      <c r="E24" s="181"/>
-      <c r="F24" s="181"/>
-      <c r="G24" s="182"/>
-      <c r="H24" s="174" t="str">
+      <c r="B24" s="104"/>
+      <c r="C24" s="177" t="s">
+        <v>198</v>
+      </c>
+      <c r="D24" s="178"/>
+      <c r="E24" s="178"/>
+      <c r="F24" s="178"/>
+      <c r="G24" s="179"/>
+      <c r="H24" s="72" t="str">
         <f>_xlfn.CONCAT("datos",B2)</f>
         <v>datosTurno</v>
       </c>
-      <c r="I24" s="174" t="str">
+      <c r="I24" s="72" t="str">
         <f>B2</f>
         <v>Turno</v>
       </c>
-      <c r="J24" s="174" t="str">
+      <c r="J24" s="72" t="str">
         <f>_xlfn.CONCAT("Corresponde a los datos que se van a modificar del ",$B$2)</f>
         <v>Corresponde a los datos que se van a modificar del Turno</v>
       </c>
-      <c r="K24" s="175"/>
-      <c r="L24" s="160"/>
-      <c r="M24" s="161"/>
-      <c r="N24" s="161"/>
-      <c r="O24" s="162"/>
-      <c r="P24" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q24" s="137" t="s">
+      <c r="K24" s="71"/>
+      <c r="L24" s="91"/>
+      <c r="M24" s="92"/>
+      <c r="N24" s="92"/>
+      <c r="O24" s="93"/>
+      <c r="P24" s="62" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q24" s="63" t="s">
         <v>159</v>
       </c>
-      <c r="R24" s="137" t="s">
-        <v>205</v>
-      </c>
-      <c r="S24" s="138" t="s">
+      <c r="R24" s="63" t="s">
+        <v>203</v>
+      </c>
+      <c r="S24" s="64" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="139" t="s">
+    <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="80" t="s">
         <v>162</v>
       </c>
-      <c r="B25" s="140"/>
-      <c r="C25" s="141" t="s">
-        <v>201</v>
-      </c>
-      <c r="D25" s="142"/>
-      <c r="E25" s="142"/>
-      <c r="F25" s="142"/>
-      <c r="G25" s="143"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="82" t="s">
+        <v>199</v>
+      </c>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="84"/>
       <c r="H25" s="39" t="s">
         <v>42</v>
       </c>
@@ -6656,18 +6656,18 @@
         <v>Corresponde al identificador del Turno  que se quiere dar de baja.</v>
       </c>
       <c r="K25" s="40"/>
-      <c r="L25" s="144"/>
-      <c r="M25" s="145"/>
-      <c r="N25" s="145"/>
-      <c r="O25" s="146"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="87"/>
       <c r="P25" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q25" s="41" t="s">
         <v>159</v>
       </c>
       <c r="R25" s="41" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="S25" s="41" t="s">
         <v>161</v>
@@ -6675,6 +6675,19 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="B3:Q3"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="C19:G20"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:O19"/>
+    <mergeCell ref="P19:Q19"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="L25:O25"/>
@@ -6690,19 +6703,6 @@
     <mergeCell ref="H21:H22"/>
     <mergeCell ref="J21:J22"/>
     <mergeCell ref="L21:O22"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="B3:Q3"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="C19:G20"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:O19"/>
-    <mergeCell ref="P19:Q19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{94AC8755-4E69-45C0-81AE-103982376658}"/>
@@ -6717,11 +6717,11 @@
     <hyperlink ref="A25:B25" location="Turno!U4" display="Eliminar" xr:uid="{797B4F6B-A586-4BB0-8AF6-79C8EA9CBE25}"/>
     <hyperlink ref="A21:B22" location="Turno!R4" display="Registrar" xr:uid="{4AF6602E-E0E3-4735-97E3-C1225FBF4E72}"/>
     <hyperlink ref="I25" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{765A0323-7B90-4DEF-ADFF-9DC283307666}"/>
-    <hyperlink ref="T4" location="Turno!A27" display="Turno!A27" xr:uid="{70F650AA-B42D-4B2B-85F0-CD857D832440}"/>
-    <hyperlink ref="U4" location="Turno!A29" display="Turno!A29" xr:uid="{5FDCB866-4F36-45DA-816D-5DB30279642B}"/>
+    <hyperlink ref="T4" location="Turno!A24" display="Turno!A24" xr:uid="{70F650AA-B42D-4B2B-85F0-CD857D832440}"/>
+    <hyperlink ref="U4" location="Turno!A25" display="Turno!A25" xr:uid="{5FDCB866-4F36-45DA-816D-5DB30279642B}"/>
     <hyperlink ref="R4" location="Turno!A21" display="Registrar" xr:uid="{64714A7B-E0B7-4EED-BCE3-5791209D17BE}"/>
-    <hyperlink ref="S4" location="Turno!A26" display="Turno!A26" xr:uid="{0318B592-2B3B-4420-8401-7AAE05D11F42}"/>
-    <hyperlink ref="A24:B24" location="Turno!U4" display="Modificar" xr:uid="{1F4FC9B8-A6C4-40AF-8529-21FE0E59FB29}"/>
+    <hyperlink ref="S4" location="Turno!A23" display="Turno!A23" xr:uid="{0318B592-2B3B-4420-8401-7AAE05D11F42}"/>
+    <hyperlink ref="A24:B24" location="Turno!T4" display="Modificar" xr:uid="{1F4FC9B8-A6C4-40AF-8529-21FE0E59FB29}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
